--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345" tabRatio="768" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -50,7 +50,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Iversen, J., Grebely, J., Catlett, B., Cunningham, P., Dore, G. J., &amp; Maher, L. (2017). Estimating the cascade of hepatitis C testing, care and treatment among people who inject drugs in Australia. International Journal of Drug Policy.</t>
@@ -75,7 +75,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -84,7 +84,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dan O'Keefe: 50% of MIX consistenly covered across interviews, 45% inconsistently covered (i.e. cycling) and 5% consistently uncovered. </t>
@@ -99,7 +99,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -108,7 +108,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Stafford, J., &amp; Breen, C. (2015). Australian Drug Trends 2015. Findings from the Illicit Drug Reporting System (IDRS). National Drug and Alcohol Research Centre, University of New South Wales, Sydney, Australia. Australian Drug Trends Series No. 145, ISBN 978-0-7334-3623-9.</t>
@@ -119,8 +119,142 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nick</author>
+  </authors>
+  <commentList>
+    <comment ref="B39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Burns L, Randall D, Hall W, Law M, Butler T, Bell J, et al. Opioid agonist pharmacotherapy in New SouthWales from 1985 to 2006: patient characteristics and patterns and predictors of treatment retention. Addiction 2009;104:1363–1372.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29% changed from covered to not covered between annual interviews
+O’Keefe, D., Scott, N., Aitken, C., &amp; Dietze, P. (2017). Longitudinal analysis of change in individual-level needle and syringe coverage amongst a cohort of people who inject drugs in Melbourne, Australia. Drug and Alcohol Dependence, 176, 7-13.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+35% reduction in injecting frequency for PWID on OST
+Scott, N., Caulkins, J. P., Ritter, A., &amp; Dietze, P. (2015). How patterns of injecting drug use evolve in a cohort of people who inject drugs. Trends and Issues in Crime and Criminal Justice, (502), 1.
+Also 0.41 from:
+Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="263">
   <si>
     <t>Year</t>
   </si>
@@ -930,6 +1064,9 @@
   </si>
   <si>
     <t>rel_incidence_NSPOST</t>
+  </si>
+  <si>
+    <t>r_inc_up</t>
   </si>
 </sst>
 </file>
@@ -984,14 +1121,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2103,7 +2240,7 @@
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2615,7 +2752,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2780,7 @@
         <v>246</v>
       </c>
       <c r="B2" s="25">
-        <v>0.2382</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
@@ -2653,7 +2790,7 @@
         <v>216</v>
       </c>
       <c r="B3" s="18">
-        <v>0.1033</v>
+        <v>7.3099999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2661,7 +2798,7 @@
         <v>217</v>
       </c>
       <c r="B4">
-        <v>0.34599999999999997</v>
+        <v>3.4599999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2669,7 +2806,7 @@
         <v>218</v>
       </c>
       <c r="B5">
-        <v>0.29930000000000001</v>
+        <v>0.17469999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2677,7 +2814,7 @@
         <v>219</v>
       </c>
       <c r="B6">
-        <v>4.0800000000000003E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2701,7 +2838,7 @@
         <v>222</v>
       </c>
       <c r="B9" s="18">
-        <v>0.18540000000000001</v>
+        <v>0.4914</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2709,7 +2846,7 @@
         <v>223</v>
       </c>
       <c r="B10">
-        <v>0.34599999999999997</v>
+        <v>1.0365</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2717,7 +2854,7 @@
         <v>224</v>
       </c>
       <c r="B11">
-        <v>0.3634</v>
+        <v>0.84970000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2725,7 +2862,7 @@
         <v>225</v>
       </c>
       <c r="B12">
-        <v>3.6999999999999998E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2749,7 +2886,7 @@
         <v>228</v>
       </c>
       <c r="B15" s="18">
-        <v>0.18540000000000001</v>
+        <v>0.55620000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2757,7 +2894,7 @@
         <v>229</v>
       </c>
       <c r="B16">
-        <v>0.50109999999999999</v>
+        <v>1.0365</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2765,7 +2902,7 @@
         <v>230</v>
       </c>
       <c r="B17">
-        <v>0.3634</v>
+        <v>0.84970000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2773,7 +2910,7 @@
         <v>231</v>
       </c>
       <c r="B18">
-        <v>5.5500000000000001E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2808,7 +2945,7 @@
         <v>235</v>
       </c>
       <c r="B22" s="20">
-        <v>999</v>
+        <v>494</v>
       </c>
       <c r="C22" t="s">
         <v>244</v>
@@ -2819,7 +2956,7 @@
         <v>236</v>
       </c>
       <c r="B23" s="20">
-        <v>1033</v>
+        <v>494</v>
       </c>
       <c r="C23" t="s">
         <v>245</v>
@@ -2830,7 +2967,7 @@
         <v>237</v>
       </c>
       <c r="B24" s="20">
-        <v>1841</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2838,7 +2975,7 @@
         <v>238</v>
       </c>
       <c r="B25" s="20">
-        <v>5243</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2846,7 +2983,7 @@
         <v>239</v>
       </c>
       <c r="B26" s="20">
-        <v>7780</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2854,7 +2991,7 @@
         <v>240</v>
       </c>
       <c r="B27" s="20">
-        <v>8376</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2862,7 +2999,7 @@
         <v>241</v>
       </c>
       <c r="B28" s="20">
-        <v>7956</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2870,7 +3007,7 @@
         <v>242</v>
       </c>
       <c r="B29" s="20">
-        <v>7353</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,7 +3015,7 @@
         <v>254</v>
       </c>
       <c r="B30" s="20">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -2886,7 +3023,7 @@
         <v>256</v>
       </c>
       <c r="B31" s="20">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2900,10 +3037,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2953,27 +3090,35 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="B6" s="11">
-        <v>100000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="11">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>1980</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B9" s="11">
         <v>25000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -3058,14 +3203,6 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A1:B32">
@@ -3330,7 +3467,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3356,23 +3493,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>2005</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B6" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
@@ -3390,7 +3539,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -3459,7 +3608,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,14 +3642,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,7 +3689,7 @@
         <v>146</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>190</v>
@@ -3792,8 +3941,8 @@
         <v>16</v>
       </c>
       <c r="B24" s="17">
-        <f>1/17</f>
-        <v>5.8823529411764705E-2</v>
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C24" t="s">
         <v>177</v>
@@ -3959,7 +4108,7 @@
         <v>251</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
         <v>252</v>
@@ -3970,7 +4119,8 @@
         <v>253</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <f>6.5/12</f>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3978,7 +4128,8 @@
         <v>255</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <f>1/0.29</f>
+        <v>3.4482758620689657</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3986,7 +4137,7 @@
         <v>259</v>
       </c>
       <c r="B41">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3994,7 +4145,7 @@
         <v>260</v>
       </c>
       <c r="B42">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -4002,11 +4153,20 @@
         <v>261</v>
       </c>
       <c r="B43">
-        <v>0.1</v>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,24 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345" tabRatio="768" firstSheet="1" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
     <sheet name="cases" sheetId="5" r:id="rId2"/>
     <sheet name="diagnoses" sheetId="12" r:id="rId3"/>
     <sheet name="disease" sheetId="4" r:id="rId4"/>
-    <sheet name="cascade_all" sheetId="2" r:id="rId5"/>
-    <sheet name="prev_PWID" sheetId="1" r:id="rId6"/>
-    <sheet name="cascade_PWID" sheetId="3" r:id="rId7"/>
-    <sheet name="Interventions_PWID" sheetId="13" r:id="rId8"/>
-    <sheet name="other_epi" sheetId="6" r:id="rId9"/>
-    <sheet name="costs" sheetId="8" r:id="rId10"/>
-    <sheet name="health_utilities" sheetId="9" r:id="rId11"/>
-    <sheet name="transition_rates" sheetId="10" r:id="rId12"/>
-    <sheet name="HCC" sheetId="11" r:id="rId13"/>
-    <sheet name="structure" sheetId="14" r:id="rId14"/>
-    <sheet name="calibration_guess" sheetId="15" r:id="rId15"/>
+    <sheet name="disease_HIV" sheetId="20" r:id="rId5"/>
+    <sheet name="cascade_all" sheetId="2" r:id="rId6"/>
+    <sheet name="prev_PWID" sheetId="1" r:id="rId7"/>
+    <sheet name="cascade_PWID" sheetId="3" r:id="rId8"/>
+    <sheet name="prev_MSM" sheetId="16" r:id="rId9"/>
+    <sheet name="OR HCV by HIV MSM" sheetId="19" r:id="rId10"/>
+    <sheet name="cascade_MSM" sheetId="18" r:id="rId11"/>
+    <sheet name="Interventions_PWID" sheetId="13" r:id="rId12"/>
+    <sheet name="other_epi" sheetId="6" r:id="rId13"/>
+    <sheet name="costs" sheetId="8" r:id="rId14"/>
+    <sheet name="health_utilities" sheetId="9" r:id="rId15"/>
+    <sheet name="transition_rates" sheetId="10" r:id="rId16"/>
+    <sheet name="HCC" sheetId="11" r:id="rId17"/>
+    <sheet name="structure" sheetId="14" r:id="rId18"/>
+    <sheet name="calibration_guess" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -41,7 +45,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -50,7 +54,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Iversen, J., Grebely, J., Catlett, B., Cunningham, P., Dore, G. J., &amp; Maher, L. (2017). Estimating the cascade of hepatitis C testing, care and treatment among people who inject drugs in Australia. International Journal of Drug Policy.</t>
@@ -75,7 +79,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -84,7 +88,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Dan O'Keefe: 50% of MIX consistenly covered across interviews, 45% inconsistently covered (i.e. cycling) and 5% consistently uncovered. </t>
@@ -99,7 +103,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -108,7 +112,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 Stafford, J., &amp; Breen, C. (2015). Australian Drug Trends 2015. Findings from the Illicit Drug Reporting System (IDRS). National Drug and Alcohol Research Centre, University of New South Wales, Sydney, Australia. Australian Drug Trends Series No. 145, ISBN 978-0-7334-3623-9.</t>
@@ -119,142 +123,8 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nick</author>
-  </authors>
-  <commentList>
-    <comment ref="B39" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Burns L, Randall D, Hall W, Law M, Butler T, Bell J, et al. Opioid agonist pharmacotherapy in New SouthWales from 1985 to 2006: patient characteristics and patterns and predictors of treatment retention. Addiction 2009;104:1363–1372.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B40" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-29% changed from covered to not covered between annual interviews
-O’Keefe, D., Scott, N., Aitken, C., &amp; Dietze, P. (2017). Longitudinal analysis of change in individual-level needle and syringe coverage amongst a cohort of people who inject drugs in Melbourne, Australia. Drug and Alcohol Dependence, 176, 7-13.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B41" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B42" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-35% reduction in injecting frequency for PWID on OST
-Scott, N., Caulkins, J. P., Ritter, A., &amp; Dietze, P. (2015). How patterns of injecting drug use evolve in a cohort of people who inject drugs. Trends and Issues in Crime and Criminal Justice, (502), 1.
-Also 0.41 from:
-Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B43" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="291">
   <si>
     <t>Year</t>
   </si>
@@ -802,9 +672,6 @@
     <t>Initial proportion of PWID infected (i.e. 1950)</t>
   </si>
   <si>
-    <t>Proportion of initial model population who are PWID</t>
-  </si>
-  <si>
     <t>Total number of PWID at peak in year 2000</t>
   </si>
   <si>
@@ -1066,7 +933,118 @@
     <t>rel_incidence_NSPOST</t>
   </si>
   <si>
-    <t>r_inc_up</t>
+    <t>HIV status</t>
+  </si>
+  <si>
+    <t>Prevalence type (anti-HCV or HCV RNA)</t>
+  </si>
+  <si>
+    <t>prevalence</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>anti-HCV</t>
+  </si>
+  <si>
+    <t>denominator</t>
+  </si>
+  <si>
+    <t>Sentinel surveillance</t>
+  </si>
+  <si>
+    <t>OR antiHCV HIV-infected vs uninfected</t>
+  </si>
+  <si>
+    <t>Lower bound CI</t>
+  </si>
+  <si>
+    <t>Upper bound CI</t>
+  </si>
+  <si>
+    <t>Platt Systematic review 2016</t>
+  </si>
+  <si>
+    <t>Number of initial model population who are PWID</t>
+  </si>
+  <si>
+    <t>Possibly move this to an Epi sheet?</t>
+  </si>
+  <si>
+    <t>Median year of study 2009</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>Sydney Health in Men cohort</t>
+  </si>
+  <si>
+    <t>Initiated treatment</t>
+  </si>
+  <si>
+    <t>Gay periodic Sydney 2011, self-report</t>
+  </si>
+  <si>
+    <t>Rate ratio of progression (HIV coinfected vs HCV monoinfected)</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Thein et al 2008 meta-analysis (approx 70% of patients on HAART)</t>
+  </si>
+  <si>
+    <t>estimated HCV RNA prev</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>HCV RNA prevalence estimated using Smith Jordan et al 2016 meta-analysis</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Proportion of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MSM with chronic HCV </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>who are in care cascade stage (I don't think we know much about the level of diagnosis among those with chronic HCV infection)</t>
+    </r>
+  </si>
+  <si>
+    <t>Antibody diagnosed</t>
+  </si>
+  <si>
+    <t>Sentinel surveillance(RNA test % was only measured among those with incident infection so may be overestimated)- antibody diagnosed % is % of all HIV positive MSM with a HCV test so may be underestimate if testing is targeted at high risk</t>
   </si>
 </sst>
 </file>
@@ -1121,17 +1099,17 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1141,6 +1119,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1175,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1234,6 +1218,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1541,7 +1530,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1553,11 +1542,744 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>7.5</v>
+      </c>
+      <c r="B2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C2">
+        <v>12.7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="125" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="7" width="11.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2009</v>
+      </c>
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3">
+        <v>0.73</v>
+      </c>
+      <c r="D3">
+        <f>C3*0.8846</f>
+        <v>0.64575800000000005</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2011</v>
+      </c>
+      <c r="B4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C4">
+        <v>0.86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2011</v>
+      </c>
+      <c r="B5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C5">
+        <v>0.748</v>
+      </c>
+      <c r="H5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>0.75</v>
+      </c>
+      <c r="C2">
+        <v>0.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="18">
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6">
+        <f>-LN(1-0.00044)</f>
+        <v>4.4009682840403613E-4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7">
+        <f>-LN(1-0.00066)</f>
+        <v>6.6021789587945585E-4</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8">
+        <f>-LN(1-0.00066)</f>
+        <v>6.6021789587945585E-4</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9">
+        <f>-LN(1-0.00099)</f>
+        <v>9.9049037367338576E-4</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10">
+        <f>-LN(1-0.00166)</f>
+        <v>1.6613793266661854E-3</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11">
+        <f>-LN(1-0.00516)</f>
+        <v>5.1733587739974654E-3</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12">
+        <f>-LN(1-0.01414)</f>
+        <v>1.4240922290342446E-2</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B13">
+        <f>-LN(1-0.04758)</f>
+        <v>4.874916500990898E-2</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14">
+        <f>-LN(1-0.16045)</f>
+        <v>0.17488924497665875</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B15">
+        <f>-LN(1-0.0096)</f>
+        <v>9.6463770518054499E-3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B16">
+        <f>-LN(1-0.0096)</f>
+        <v>9.6463770518054499E-3</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B17">
+        <f>-LN(1-0.0112)</f>
+        <v>1.1263192278710714E-2</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18">
+        <f>-LN(1-0.0018)</f>
+        <v>1.8016219466282088E-3</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1000</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B21">
+        <f>B19*0.5</f>
+        <v>500</v>
+      </c>
+      <c r="C21" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>90000</v>
+      </c>
+      <c r="C22" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="17">
+        <f>1/17</f>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25">
+        <f>-LN(1-0.027)</f>
+        <v>2.7371196796132015E-2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26">
+        <v>0.6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27">
+        <v>0.9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <v>0.1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29">
+        <v>0.9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>139</v>
+      </c>
+      <c r="B30">
+        <f>1/(18.36/52)</f>
+        <v>2.8322440087145972</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>140</v>
+      </c>
+      <c r="B31">
+        <v>0.26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32">
+        <v>23.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33">
+        <f>0.59/(0.5 * 9)</f>
+        <v>0.13111111111111109</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34">
+        <v>0.8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B35">
+        <v>0.65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>246</v>
+      </c>
+      <c r="B36">
+        <v>0.3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37">
+        <v>0.3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>252</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>254</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>258</v>
+      </c>
+      <c r="B41">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>259</v>
+      </c>
+      <c r="B42">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43">
+        <v>0.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1823,7 +2545,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1831,7 +2553,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1842,7 +2564,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -1965,7 +2687,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -1982,7 +2704,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -1996,7 +2718,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B9" s="11">
         <v>0.66</v>
@@ -2233,14 +2955,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2262,7 +2984,7 @@
         <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2515,7 +3237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2669,7 +3391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -2696,7 +3418,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -2704,7 +3426,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -2712,7 +3434,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -2720,7 +3442,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2728,7 +3450,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2736,7 +3458,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2747,12 +3469,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,49 +3499,49 @@
     </row>
     <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B2" s="25">
-        <v>0.1</v>
+        <v>0.2382</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B3" s="18">
-        <v>7.3099999999999998E-2</v>
+        <v>0.1033</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B4">
-        <v>3.4599999999999999E-2</v>
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5">
-        <v>0.17469999999999999</v>
+        <v>0.29930000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B6">
-        <v>8.3099999999999993E-2</v>
+        <v>4.0800000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B7">
         <v>0.02</v>
@@ -2827,7 +3549,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8">
         <v>0.02</v>
@@ -2835,39 +3557,39 @@
     </row>
     <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B9" s="18">
-        <v>0.4914</v>
+        <v>0.18540000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B10">
-        <v>1.0365</v>
+        <v>0.34599999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B11">
-        <v>0.84970000000000001</v>
+        <v>0.3634</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12">
-        <v>8.3099999999999993E-2</v>
+        <v>3.6999999999999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B13">
         <v>0.02</v>
@@ -2875,7 +3597,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14">
         <v>0.02</v>
@@ -2883,39 +3605,39 @@
     </row>
     <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="18">
-        <v>0.55620000000000003</v>
+        <v>0.18540000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B16">
-        <v>1.0365</v>
+        <v>0.50109999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B17">
-        <v>0.84970000000000001</v>
+        <v>0.3634</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B18">
-        <v>8.3099999999999993E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B19">
         <v>0.02</v>
@@ -2923,7 +3645,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B20">
         <v>0.02</v>
@@ -2931,99 +3653,99 @@
     </row>
     <row r="21" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B21" s="18">
         <v>500</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B22" s="20">
-        <v>494</v>
+        <v>999</v>
       </c>
       <c r="C22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B23" s="20">
-        <v>494</v>
+        <v>1033</v>
       </c>
       <c r="C23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="20">
-        <v>797</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" s="20">
-        <v>1000</v>
+        <v>5243</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B26" s="20">
-        <v>1100</v>
+        <v>7780</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B27" s="20">
-        <v>1260</v>
+        <v>8376</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B28" s="20">
-        <v>1239</v>
+        <v>7956</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="20">
-        <v>2000</v>
+        <v>7353</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B30" s="20">
-        <v>3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B31" s="20">
-        <v>3</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -3037,10 +3759,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,35 +3812,27 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="B6" s="11">
-        <v>210000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>2000</v>
+        <v>1980</v>
       </c>
       <c r="B7" s="11">
-        <v>200000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>1995</v>
-      </c>
-      <c r="B8" s="11">
-        <v>150000</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>1980</v>
-      </c>
-      <c r="B9" s="11">
-        <v>25000</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -3203,6 +3917,14 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A1:B32">
@@ -3400,10 +4122,75 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2008</v>
+      </c>
+      <c r="B3">
+        <v>2.1</v>
+      </c>
+      <c r="C3">
+        <v>1.5</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3459,15 +4246,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,35 +4280,23 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="B3" s="6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.6</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
@@ -3532,7 +4307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3540,7 +4315,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3600,573 +4375,107 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="4"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2">
-        <v>0.75</v>
-      </c>
-      <c r="C2">
-        <v>0.47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="0" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:D44"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="7" width="10.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>161</v>
+    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>133</v>
+        <v>261</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>262</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B2">
-        <v>66</v>
+        <v>263</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I1" s="26"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="B2" t="s">
+        <v>265</v>
       </c>
       <c r="C2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
+        <v>266</v>
+      </c>
+      <c r="D2">
+        <v>0.114</v>
+      </c>
+      <c r="E2">
+        <f>D2*(1-0.154)</f>
+        <v>9.6444000000000002E-2</v>
+      </c>
+      <c r="F2">
+        <v>2190</v>
+      </c>
+      <c r="G2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" s="18">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B6">
-        <f>-LN(1-0.00044)</f>
-        <v>4.4009682840403613E-4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B7">
-        <f>-LN(1-0.00066)</f>
-        <v>6.6021789587945585E-4</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B8">
-        <f>-LN(1-0.00066)</f>
-        <v>6.6021789587945585E-4</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9">
-        <f>-LN(1-0.00099)</f>
-        <v>9.9049037367338576E-4</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>153</v>
-      </c>
-      <c r="B10">
-        <f>-LN(1-0.00166)</f>
-        <v>1.6613793266661854E-3</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11">
-        <f>-LN(1-0.00516)</f>
-        <v>5.1733587739974654E-3</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B12">
-        <f>-LN(1-0.01414)</f>
-        <v>1.4240922290342446E-2</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13">
-        <f>-LN(1-0.04758)</f>
-        <v>4.874916500990898E-2</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14">
-        <f>-LN(1-0.16045)</f>
-        <v>0.17488924497665875</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>158</v>
-      </c>
-      <c r="B15">
-        <f>-LN(1-0.0096)</f>
-        <v>9.6463770518054499E-3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B16">
-        <f>-LN(1-0.0096)</f>
-        <v>9.6463770518054499E-3</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17">
-        <f>-LN(1-0.0112)</f>
-        <v>1.1263192278710714E-2</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B18">
-        <f>-LN(1-0.0018)</f>
-        <v>1.8016219466282088E-3</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" s="18">
-        <v>1000</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20">
-        <v>0.1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B21">
-        <f>B19*0.5</f>
-        <v>500</v>
-      </c>
-      <c r="C21" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22">
-        <v>90000</v>
-      </c>
-      <c r="C22" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="17">
-        <f>1/14</f>
-        <v>7.1428571428571425E-2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
-        <f>-LN(1-0.027)</f>
-        <v>2.7371196796132015E-2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26">
-        <v>0.6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
-        <v>0.9</v>
-      </c>
-      <c r="C27" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
-        <v>0.1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29">
-        <v>0.9</v>
-      </c>
-      <c r="C29" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>139</v>
-      </c>
-      <c r="B30">
-        <f>1/(18.36/52)</f>
-        <v>2.8322440087145972</v>
-      </c>
-      <c r="C30" t="s">
-        <v>183</v>
-      </c>
-      <c r="D30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>140</v>
-      </c>
-      <c r="B31">
-        <v>0.26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B32">
-        <v>23.5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B33">
-        <f>0.59/(0.5 * 9)</f>
-        <v>0.13111111111111109</v>
-      </c>
-      <c r="C33" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>143</v>
-      </c>
-      <c r="B34">
-        <v>0.8</v>
-      </c>
-      <c r="C34" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35">
-        <v>0.65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>247</v>
-      </c>
-      <c r="B36">
-        <v>0.3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>248</v>
-      </c>
-      <c r="B37">
-        <v>0.3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>251</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>253</v>
-      </c>
-      <c r="B39">
-        <f>6.5/12</f>
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>255</v>
-      </c>
-      <c r="B40">
-        <f>1/0.29</f>
-        <v>3.4482758620689657</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41">
-        <v>0.48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>260</v>
-      </c>
-      <c r="B42">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>261</v>
-      </c>
-      <c r="B43">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>262</v>
-      </c>
-      <c r="B44">
-        <v>2.5</v>
+        <v>266</v>
+      </c>
+      <c r="D3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="E3">
+        <f>D3*(1-0.244)</f>
+        <v>8.0891999999999995E-3</v>
+      </c>
+      <c r="F3">
+        <v>1398</v>
+      </c>
+      <c r="G3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H3" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,28 +4,27 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="12345" tabRatio="768" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
     <sheet name="cases" sheetId="5" r:id="rId2"/>
     <sheet name="diagnoses" sheetId="12" r:id="rId3"/>
     <sheet name="disease" sheetId="4" r:id="rId4"/>
-    <sheet name="disease_HIV" sheetId="20" r:id="rId5"/>
+    <sheet name="disease_HIV" sheetId="16" r:id="rId5"/>
     <sheet name="cascade_all" sheetId="2" r:id="rId6"/>
     <sheet name="prev_PWID" sheetId="1" r:id="rId7"/>
     <sheet name="cascade_PWID" sheetId="3" r:id="rId8"/>
-    <sheet name="prev_MSM" sheetId="16" r:id="rId9"/>
-    <sheet name="OR HCV by HIV MSM" sheetId="19" r:id="rId10"/>
-    <sheet name="cascade_MSM" sheetId="18" r:id="rId11"/>
-    <sheet name="Interventions_PWID" sheetId="13" r:id="rId12"/>
-    <sheet name="other_epi" sheetId="6" r:id="rId13"/>
-    <sheet name="costs" sheetId="8" r:id="rId14"/>
-    <sheet name="health_utilities" sheetId="9" r:id="rId15"/>
-    <sheet name="transition_rates" sheetId="10" r:id="rId16"/>
-    <sheet name="HCC" sheetId="11" r:id="rId17"/>
-    <sheet name="structure" sheetId="14" r:id="rId18"/>
-    <sheet name="calibration_guess" sheetId="15" r:id="rId19"/>
+    <sheet name="prev_MSM" sheetId="17" r:id="rId9"/>
+    <sheet name="cascade_MSM" sheetId="18" r:id="rId10"/>
+    <sheet name="Interventions_PWID" sheetId="13" r:id="rId11"/>
+    <sheet name="other_epi" sheetId="6" r:id="rId12"/>
+    <sheet name="costs" sheetId="8" r:id="rId13"/>
+    <sheet name="health_utilities" sheetId="9" r:id="rId14"/>
+    <sheet name="transition_rates" sheetId="10" r:id="rId15"/>
+    <sheet name="HCC" sheetId="11" r:id="rId16"/>
+    <sheet name="structure" sheetId="14" r:id="rId17"/>
+    <sheet name="calibration_guess" sheetId="15" r:id="rId18"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -45,7 +44,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -54,7 +53,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Iversen, J., Grebely, J., Catlett, B., Cunningham, P., Dore, G. J., &amp; Maher, L. (2017). Estimating the cascade of hepatitis C testing, care and treatment among people who inject drugs in Australia. International Journal of Drug Policy.</t>
@@ -79,7 +78,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -88,7 +87,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Dan O'Keefe: 50% of MIX consistenly covered across interviews, 45% inconsistently covered (i.e. cycling) and 5% consistently uncovered. </t>
@@ -103,7 +102,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick:</t>
         </r>
@@ -112,7 +111,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 Stafford, J., &amp; Breen, C. (2015). Australian Drug Trends 2015. Findings from the Illicit Drug Reporting System (IDRS). National Drug and Alcohol Research Centre, University of New South Wales, Sydney, Australia. Australian Drug Trends Series No. 145, ISBN 978-0-7334-3623-9.</t>
@@ -123,8 +122,142 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nick</author>
+  </authors>
+  <commentList>
+    <comment ref="B39" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Burns L, Randall D, Hall W, Law M, Butler T, Bell J, et al. Opioid agonist pharmacotherapy in New SouthWales from 1985 to 2006: patient characteristics and patterns and predictors of treatment retention. Addiction 2009;104:1363–1372.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B40" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+29% changed from covered to not covered between annual interviews
+O’Keefe, D., Scott, N., Aitken, C., &amp; Dietze, P. (2017). Longitudinal analysis of change in individual-level needle and syringe coverage amongst a cohort of people who inject drugs in Melbourne, Australia. Drug and Alcohol Dependence, 176, 7-13.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B41" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B42" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+35% reduction in injecting frequency for PWID on OST
+Scott, N., Caulkins, J. P., Ritter, A., &amp; Dietze, P. (2015). How patterns of injecting drug use evolve in a cohort of people who inject drugs. Trends and Issues in Crime and Criminal Justice, (502), 1.
+Also 0.41 from:
+Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Nick:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Turner, K. M., Hutchinson, S., Vickerman, P., Hope, V., Craine, N., Palmateer, N., ... &amp; Parry, J. (2011). The impact of needle and syringe provision and opiate substitution therapy on the incidence of hepatitis C virus in injecting drug users: pooling of UK evidence. Addiction, 106(11), 1978-1988.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="282">
   <si>
     <t>Year</t>
   </si>
@@ -672,6 +805,9 @@
     <t>Initial proportion of PWID infected (i.e. 1950)</t>
   </si>
   <si>
+    <t>Proportion of initial model population who are PWID</t>
+  </si>
+  <si>
     <t>Total number of PWID at peak in year 2000</t>
   </si>
   <si>
@@ -933,85 +1069,49 @@
     <t>rel_incidence_NSPOST</t>
   </si>
   <si>
+    <t>r_inc_up</t>
+  </si>
+  <si>
+    <t>Rate ratio of progression (HIV coinfected vs HCV monoinfected)</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>LL</t>
+  </si>
+  <si>
+    <t>UL</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Thein et al 2008 meta-analysis (approx 70% of patients on HAART)</t>
+  </si>
+  <si>
     <t>HIV status</t>
   </si>
   <si>
-    <t>Prevalence type (anti-HCV or HCV RNA)</t>
-  </si>
-  <si>
-    <t>prevalence</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>anti-HCV</t>
+    <t>anti-HCV prevalence</t>
+  </si>
+  <si>
+    <t>estimated HCV RNA prev</t>
   </si>
   <si>
     <t>denominator</t>
   </si>
   <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Sentinel surveillance</t>
   </si>
   <si>
-    <t>OR antiHCV HIV-infected vs uninfected</t>
-  </si>
-  <si>
-    <t>Lower bound CI</t>
-  </si>
-  <si>
-    <t>Upper bound CI</t>
-  </si>
-  <si>
-    <t>Platt Systematic review 2016</t>
-  </si>
-  <si>
-    <t>Number of initial model population who are PWID</t>
-  </si>
-  <si>
-    <t>Possibly move this to an Epi sheet?</t>
-  </si>
-  <si>
-    <t>Median year of study 2009</t>
-  </si>
-  <si>
-    <t>negative</t>
+    <t>HCV RNA prevalence estimated using Smith Jordan et al 2016 meta-analysis</t>
   </si>
   <si>
     <t>Sydney Health in Men cohort</t>
-  </si>
-  <si>
-    <t>Initiated treatment</t>
-  </si>
-  <si>
-    <t>Gay periodic Sydney 2011, self-report</t>
-  </si>
-  <si>
-    <t>Rate ratio of progression (HIV coinfected vs HCV monoinfected)</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>Thein et al 2008 meta-analysis (approx 70% of patients on HAART)</t>
-  </si>
-  <si>
-    <t>estimated HCV RNA prev</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>HCV RNA prevalence estimated using Smith Jordan et al 2016 meta-analysis</t>
   </si>
   <si>
     <r>
@@ -1044,7 +1144,13 @@
     <t>Antibody diagnosed</t>
   </si>
   <si>
+    <t>Initiated treatment</t>
+  </si>
+  <si>
     <t>Sentinel surveillance(RNA test % was only measured among those with incident infection so may be overestimated)- antibody diagnosed % is % of all HIV positive MSM with a HCV test so may be underestimate if testing is targeted at high risk</t>
+  </si>
+  <si>
+    <t>Gay periodic Sydney 2011, self-report</t>
   </si>
 </sst>
 </file>
@@ -1099,14 +1205,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1159,7 +1265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1218,11 +1324,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1530,7 +1633,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,106 +1647,35 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="36.140625" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5703125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>7.5</v>
-      </c>
-      <c r="B2">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C2">
-        <v>12.7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>272</v>
-      </c>
-      <c r="E2" t="s">
-        <v>274</v>
-      </c>
-      <c r="F2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="125" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:O5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="7" width="11.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
       <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-    </row>
-    <row r="2" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
@@ -1655,18 +1687,18 @@
         <v>10</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2009</v>
       </c>
-      <c r="B3" t="s">
-        <v>265</v>
+      <c r="B3">
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0.73</v>
@@ -1676,35 +1708,35 @@
         <v>0.64575800000000005</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2011</v>
       </c>
-      <c r="B4" t="s">
-        <v>265</v>
+      <c r="B4">
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0.86</v>
       </c>
       <c r="H4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
-      <c r="B5" t="s">
-        <v>276</v>
+      <c r="B5">
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0.748</v>
       </c>
       <c r="H5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +1744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1720,7 +1752,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1753,15 +1785,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,7 +1825,7 @@
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,10 +1833,10 @@
         <v>146</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" s="12"/>
     </row>
@@ -1816,7 +1848,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1827,7 +1859,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1839,10 +1871,10 @@
         <v>4.4009682840403613E-4</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1854,7 +1886,7 @@
         <v>6.6021789587945585E-4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1866,7 +1898,7 @@
         <v>6.6021789587945585E-4</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,7 +1910,7 @@
         <v>9.9049037367338576E-4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1890,7 +1922,7 @@
         <v>1.6613793266661854E-3</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,7 +1934,7 @@
         <v>5.1733587739974654E-3</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1914,7 +1946,7 @@
         <v>1.4240922290342446E-2</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1926,7 +1958,7 @@
         <v>4.874916500990898E-2</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1938,7 +1970,7 @@
         <v>0.17488924497665875</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1950,10 +1982,10 @@
         <v>9.6463770518054499E-3</v>
       </c>
       <c r="C15" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1965,7 +1997,7 @@
         <v>9.6463770518054499E-3</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1977,19 +2009,19 @@
         <v>1.1263192278710714E-2</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18">
         <f>-LN(1-0.0018)</f>
         <v>1.8016219466282088E-3</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2055,7 @@
         <v>500</v>
       </c>
       <c r="C21" t="s">
-        <v>273</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2034,7 +2066,7 @@
         <v>90000</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2045,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2053,14 +2085,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="17">
-        <f>1/17</f>
-        <v>5.8823529411764705E-2</v>
+        <f>1/14</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="C24" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2072,10 +2104,10 @@
         <v>2.7371196796132015E-2</v>
       </c>
       <c r="C25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2086,7 +2118,7 @@
         <v>0.6</v>
       </c>
       <c r="C26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2097,7 +2129,7 @@
         <v>0.9</v>
       </c>
       <c r="C27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2108,7 +2140,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2119,7 +2151,7 @@
         <v>0.9</v>
       </c>
       <c r="C29" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2131,7 +2163,7 @@
         <v>2.8322440087145972</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D30" t="s">
         <v>168</v>
@@ -2179,7 +2211,7 @@
         <v>0.8</v>
       </c>
       <c r="C34" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -2190,96 +2222,107 @@
         <v>0.65</v>
       </c>
       <c r="C35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B36">
         <v>0.3</v>
       </c>
       <c r="C36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B37">
         <v>0.3</v>
       </c>
       <c r="C37" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <f>6.5/12</f>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <f>1/0.29</f>
+        <v>3.4482758620689657</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B41">
-        <v>0.25</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B42">
-        <v>0.25</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B43">
-        <v>0.1</v>
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>262</v>
+      </c>
+      <c r="B44">
+        <v>2.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -2545,7 +2588,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -2553,7 +2596,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -2564,7 +2607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -2687,7 +2730,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -2704,7 +2747,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B8" s="11">
         <v>1</v>
@@ -2718,7 +2761,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B9" s="11">
         <v>0.66</v>
@@ -2955,14 +2998,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2984,7 +3027,7 @@
         <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,7 +3280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3391,7 +3434,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3418,7 +3461,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -3426,7 +3469,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -3434,7 +3477,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B4">
         <v>9</v>
@@ -3442,7 +3485,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3450,7 +3493,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -3458,7 +3501,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -3469,12 +3512,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3499,49 +3542,49 @@
     </row>
     <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B2" s="25">
-        <v>0.2382</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B3" s="18">
-        <v>0.1033</v>
+        <v>7.3099999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B4">
-        <v>0.34599999999999997</v>
+        <v>3.4599999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B5">
-        <v>0.29930000000000001</v>
+        <v>0.17469999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B6">
-        <v>4.0800000000000003E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B7">
         <v>0.02</v>
@@ -3549,7 +3592,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B8">
         <v>0.02</v>
@@ -3557,39 +3600,39 @@
     </row>
     <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B9" s="18">
-        <v>0.18540000000000001</v>
+        <v>0.4914</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B10">
-        <v>0.34599999999999997</v>
+        <v>1.0365</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B11">
-        <v>0.3634</v>
+        <v>0.84970000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B12">
-        <v>3.6999999999999998E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B13">
         <v>0.02</v>
@@ -3597,7 +3640,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B14">
         <v>0.02</v>
@@ -3605,39 +3648,39 @@
     </row>
     <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B15" s="18">
-        <v>0.18540000000000001</v>
+        <v>0.55620000000000003</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B16">
-        <v>0.50109999999999999</v>
+        <v>1.0365</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B17">
-        <v>0.3634</v>
+        <v>0.84970000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B18">
-        <v>5.5500000000000001E-2</v>
+        <v>8.3099999999999993E-2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B19">
         <v>0.02</v>
@@ -3645,7 +3688,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20">
         <v>0.02</v>
@@ -3653,99 +3696,99 @@
     </row>
     <row r="21" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B21" s="18">
         <v>500</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B22" s="20">
-        <v>999</v>
+        <v>494</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B23" s="20">
-        <v>1033</v>
+        <v>494</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B24" s="20">
-        <v>1841</v>
+        <v>797</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B25" s="20">
-        <v>5243</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B26" s="20">
-        <v>7780</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B27" s="20">
-        <v>8376</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B28" s="20">
-        <v>7956</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B29" s="20">
-        <v>7353</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B30" s="20">
-        <v>0.4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B31" s="20">
-        <v>0.6</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3759,10 +3802,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3812,27 +3855,35 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
-        <v>1995</v>
+        <v>2005</v>
       </c>
       <c r="B6" s="11">
-        <v>100000</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>1995</v>
+      </c>
+      <c r="B8" s="11">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
         <v>1980</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B9" s="11">
         <v>25000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -3917,14 +3968,6 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A1:B32">
@@ -4125,38 +4168,35 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="6" width="12.5703125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F2" s="5"/>
     </row>
@@ -4174,7 +4214,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4190,7 +4230,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4253,8 +4293,8 @@
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4280,23 +4320,35 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <v>2005</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B6" s="6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
@@ -4315,7 +4367,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4380,99 +4432,83 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>267</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I1" s="26"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2009</v>
       </c>
-      <c r="B2" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" t="s">
-        <v>266</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.114</v>
       </c>
       <c r="D2">
-        <v>0.114</v>
+        <f>C2*(1-0.154)</f>
+        <v>9.6444000000000002E-2</v>
       </c>
       <c r="E2">
-        <f>D2*(1-0.154)</f>
-        <v>9.6444000000000002E-2</v>
-      </c>
-      <c r="F2">
         <v>2190</v>
       </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
       <c r="G2" t="s">
-        <v>268</v>
-      </c>
-      <c r="H2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2003</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <f>C3*(1-0.244)</f>
+        <v>8.0891999999999995E-3</v>
+      </c>
+      <c r="E3">
+        <v>1398</v>
+      </c>
+      <c r="F3" t="s">
         <v>276</v>
       </c>
-      <c r="C3" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="E3">
-        <f>D3*(1-0.244)</f>
-        <v>8.0891999999999995E-3</v>
-      </c>
-      <c r="F3">
-        <v>1398</v>
-      </c>
       <c r="G3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H3" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,27 +4,29 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="7" r:id="rId1"/>
-    <sheet name="cases" sheetId="5" r:id="rId2"/>
-    <sheet name="diagnoses" sheetId="12" r:id="rId3"/>
-    <sheet name="disease" sheetId="4" r:id="rId4"/>
-    <sheet name="disease_HIV" sheetId="16" r:id="rId5"/>
-    <sheet name="cascade_all" sheetId="2" r:id="rId6"/>
-    <sheet name="prev_PWID" sheetId="1" r:id="rId7"/>
-    <sheet name="cascade_PWID" sheetId="3" r:id="rId8"/>
-    <sheet name="prev_MSM" sheetId="17" r:id="rId9"/>
-    <sheet name="cascade_MSM" sheetId="18" r:id="rId10"/>
-    <sheet name="Interventions_PWID" sheetId="13" r:id="rId11"/>
-    <sheet name="other_epi" sheetId="6" r:id="rId12"/>
-    <sheet name="costs" sheetId="8" r:id="rId13"/>
-    <sheet name="health_utilities" sheetId="9" r:id="rId14"/>
-    <sheet name="transition_rates" sheetId="10" r:id="rId15"/>
-    <sheet name="HCC" sheetId="11" r:id="rId16"/>
-    <sheet name="structure" sheetId="14" r:id="rId17"/>
-    <sheet name="calibration_guess" sheetId="15" r:id="rId18"/>
+    <sheet name="demographics" sheetId="20" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="7" r:id="rId2"/>
+    <sheet name="cases" sheetId="5" r:id="rId3"/>
+    <sheet name="diagnoses" sheetId="12" r:id="rId4"/>
+    <sheet name="disease" sheetId="4" r:id="rId5"/>
+    <sheet name="disease_HIV" sheetId="16" r:id="rId6"/>
+    <sheet name="cascade_all" sheetId="2" r:id="rId7"/>
+    <sheet name="prev_prison" sheetId="19" r:id="rId8"/>
+    <sheet name="prev_PWID" sheetId="1" r:id="rId9"/>
+    <sheet name="cascade_PWID" sheetId="3" r:id="rId10"/>
+    <sheet name="prev_MSM" sheetId="17" r:id="rId11"/>
+    <sheet name="cascade_MSM" sheetId="18" r:id="rId12"/>
+    <sheet name="Interventions_PWID" sheetId="13" r:id="rId13"/>
+    <sheet name="other_epi" sheetId="6" r:id="rId14"/>
+    <sheet name="costs" sheetId="8" r:id="rId15"/>
+    <sheet name="health_utilities" sheetId="9" r:id="rId16"/>
+    <sheet name="transition_rates" sheetId="10" r:id="rId17"/>
+    <sheet name="HCC" sheetId="11" r:id="rId18"/>
+    <sheet name="structure" sheetId="14" r:id="rId19"/>
+    <sheet name="calibration_guess" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -257,7 +259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="293">
   <si>
     <t>Year</t>
   </si>
@@ -1151,6 +1153,39 @@
   </si>
   <si>
     <t>Gay periodic Sydney 2011, self-report</t>
+  </si>
+  <si>
+    <t>Prevalence among prison1</t>
+  </si>
+  <si>
+    <t>Prevalence among prison2</t>
+  </si>
+  <si>
+    <t>Prevalence among prison3</t>
+  </si>
+  <si>
+    <t>Prevalence among prison4</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>PWID</t>
+  </si>
+  <si>
+    <t>Prison1</t>
+  </si>
+  <si>
+    <t>Prison2</t>
+  </si>
+  <si>
+    <t>Prison3</t>
+  </si>
+  <si>
+    <t>Prison4</t>
+  </si>
+  <si>
+    <t>ave_sentence</t>
   </si>
 </sst>
 </file>
@@ -1628,21 +1663,456 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>2016</v>
+      </c>
+      <c r="B2" s="11">
+        <f>24.13*10^(6)</f>
+        <v>24130000</v>
+      </c>
+      <c r="C2">
+        <v>80000</v>
+      </c>
+      <c r="D2">
+        <v>4000</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>2015</v>
+      </c>
+      <c r="B3" s="11">
+        <v>23940000</v>
+      </c>
+      <c r="C3">
+        <v>80000</v>
+      </c>
+      <c r="D3">
+        <v>4000</v>
+      </c>
+      <c r="E3">
+        <v>5000</v>
+      </c>
+      <c r="F3">
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>2014</v>
+      </c>
+      <c r="B4" s="11">
+        <v>23610000</v>
+      </c>
+      <c r="C4">
+        <v>80000</v>
+      </c>
+      <c r="D4">
+        <v>4000</v>
+      </c>
+      <c r="E4">
+        <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="11">
+        <v>23290000</v>
+      </c>
+      <c r="C5">
+        <v>80000</v>
+      </c>
+      <c r="D5">
+        <v>4000</v>
+      </c>
+      <c r="E5">
+        <v>5000</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="11">
+        <v>22920000</v>
+      </c>
+      <c r="C6">
+        <v>80000</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+      <c r="E6">
+        <v>5000</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="11">
+        <v>22520000</v>
+      </c>
+      <c r="C7">
+        <v>80000</v>
+      </c>
+      <c r="D7">
+        <v>4000</v>
+      </c>
+      <c r="E7">
+        <v>5000</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="11">
+        <v>22170000</v>
+      </c>
+      <c r="C8">
+        <v>80000</v>
+      </c>
+      <c r="D8">
+        <v>4000</v>
+      </c>
+      <c r="E8">
+        <v>5000</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="5" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <f>0.8*cascade_all!B3</f>
+        <v>0.68</v>
+      </c>
+      <c r="C3">
+        <f>B3*0.46</f>
+        <v>0.31280000000000002</v>
+      </c>
+      <c r="D3">
+        <f>C3*0.9</f>
+        <v>0.28152000000000005</v>
+      </c>
+      <c r="E3">
+        <f>0.8*cascade_all!E3</f>
+        <v>0.192</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2009</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.114</v>
+      </c>
+      <c r="D2">
+        <f>C2*(1-0.154)</f>
+        <v>9.6444000000000002E-2</v>
+      </c>
+      <c r="E2">
+        <v>2190</v>
+      </c>
+      <c r="F2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2003</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1.0699999999999999E-2</v>
+      </c>
+      <c r="D3">
+        <f>C3*(1-0.244)</f>
+        <v>8.0891999999999995E-3</v>
+      </c>
+      <c r="E3">
+        <v>1398</v>
+      </c>
+      <c r="F3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G3" t="s">
+        <v>275</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -1744,7 +2214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4"/>
@@ -1785,15 +2255,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,6 +2778,14 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
@@ -2315,7 +2793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -2607,7 +3085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -2998,7 +3476,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -3280,7 +3758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3434,12 +3912,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3504,7 +3982,7 @@
         <v>215</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3990,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -3797,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3977,7 +4472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4090,7 +4585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4160,7 +4655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4222,7 +4717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4286,7 +4781,121 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>2015</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>2008</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>0.22</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>2005</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4357,161 +4966,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2015</v>
-      </c>
-      <c r="B3">
-        <f>0.8*cascade_all!B3</f>
-        <v>0.68</v>
-      </c>
-      <c r="C3">
-        <f>B3*0.46</f>
-        <v>0.31280000000000002</v>
-      </c>
-      <c r="D3">
-        <f>C3*0.9</f>
-        <v>0.28152000000000005</v>
-      </c>
-      <c r="E3">
-        <f>0.8*cascade_all!E3</f>
-        <v>0.192</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2009</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0.114</v>
-      </c>
-      <c r="D2">
-        <f>C2*(1-0.154)</f>
-        <v>9.6444000000000002E-2</v>
-      </c>
-      <c r="E2">
-        <v>2190</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2003</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="D3">
-        <f>C3*(1-0.244)</f>
-        <v>8.0891999999999995E-3</v>
-      </c>
-      <c r="E3">
-        <v>1398</v>
-      </c>
-      <c r="F3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G3" t="s">
-        <v>275</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Template.xlsx
+++ b/Template.xlsx
@@ -2263,7 +2263,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2783,7 +2783,7 @@
         <v>292</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,121 +8,27 @@
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
-    <sheet name="cases" sheetId="5" r:id="rId2"/>
-    <sheet name="diagnoses" sheetId="12" r:id="rId3"/>
-    <sheet name="disease" sheetId="4" r:id="rId4"/>
-    <sheet name="disease_HIV" sheetId="16" r:id="rId5"/>
+    <sheet name="demographics" sheetId="19" r:id="rId2"/>
+    <sheet name="cases" sheetId="5" r:id="rId3"/>
+    <sheet name="diagnoses" sheetId="12" r:id="rId4"/>
+    <sheet name="disease" sheetId="4" r:id="rId5"/>
     <sheet name="cascade_all" sheetId="2" r:id="rId6"/>
     <sheet name="prev_PWID" sheetId="1" r:id="rId7"/>
     <sheet name="cascade_PWID" sheetId="3" r:id="rId8"/>
-    <sheet name="prev_MSM" sheetId="17" r:id="rId9"/>
-    <sheet name="cascade_MSM" sheetId="18" r:id="rId10"/>
-    <sheet name="Interventions_PWID" sheetId="13" r:id="rId11"/>
-    <sheet name="other_epi" sheetId="6" r:id="rId12"/>
-    <sheet name="costs" sheetId="8" r:id="rId13"/>
-    <sheet name="health_utilities" sheetId="9" r:id="rId14"/>
-    <sheet name="transition_rates" sheetId="10" r:id="rId15"/>
-    <sheet name="HCC" sheetId="11" r:id="rId16"/>
-    <sheet name="structure" sheetId="14" r:id="rId17"/>
-    <sheet name="calibration_guess" sheetId="15" r:id="rId18"/>
+    <sheet name="Interventions_PWID" sheetId="13" r:id="rId9"/>
+    <sheet name="other_epi" sheetId="6" r:id="rId10"/>
+    <sheet name="costs" sheetId="8" r:id="rId11"/>
+    <sheet name="health_utilities" sheetId="9" r:id="rId12"/>
+    <sheet name="transition_rates" sheetId="10" r:id="rId13"/>
+    <sheet name="HCC" sheetId="11" r:id="rId14"/>
+    <sheet name="structure" sheetId="14" r:id="rId15"/>
+    <sheet name="calibration_guess" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nick</author>
-  </authors>
-  <commentList>
-    <comment ref="C3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Iversen, J., Grebely, J., Catlett, B., Cunningham, P., Dore, G. J., &amp; Maher, L. (2017). Estimating the cascade of hepatitis C testing, care and treatment among people who inject drugs in Australia. International Journal of Drug Policy.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Nick</author>
-  </authors>
-  <commentList>
-    <comment ref="B2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Dan O'Keefe: 50% of MIX consistenly covered across interviews, 45% inconsistently covered (i.e. cycling) and 5% consistently uncovered. </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nick:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Stafford, J., &amp; Breen, C. (2015). Australian Drug Trends 2015. Findings from the Illicit Drug Reporting System (IDRS). National Drug and Alcohol Research Centre, University of New South Wales, Sydney, Australia. Australian Drug Trends Series No. 145, ISBN 978-0-7334-3623-9.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nick</author>
@@ -257,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="264">
   <si>
     <t>Year</t>
   </si>
@@ -1072,85 +978,7 @@
     <t>r_inc_up</t>
   </si>
   <si>
-    <t>Rate ratio of progression (HIV coinfected vs HCV monoinfected)</t>
-  </si>
-  <si>
-    <t>RR</t>
-  </si>
-  <si>
-    <t>LL</t>
-  </si>
-  <si>
-    <t>UL</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Thein et al 2008 meta-analysis (approx 70% of patients on HAART)</t>
-  </si>
-  <si>
-    <t>HIV status</t>
-  </si>
-  <si>
-    <t>anti-HCV prevalence</t>
-  </si>
-  <si>
-    <t>estimated HCV RNA prev</t>
-  </si>
-  <si>
-    <t>denominator</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Sentinel surveillance</t>
-  </si>
-  <si>
-    <t>HCV RNA prevalence estimated using Smith Jordan et al 2016 meta-analysis</t>
-  </si>
-  <si>
-    <t>Sydney Health in Men cohort</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Proportion of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">MSM with chronic HCV </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>who are in care cascade stage (I don't think we know much about the level of diagnosis among those with chronic HCV infection)</t>
-    </r>
-  </si>
-  <si>
-    <t>Antibody diagnosed</t>
-  </si>
-  <si>
-    <t>Initiated treatment</t>
-  </si>
-  <si>
-    <t>Sentinel surveillance(RNA test % was only measured among those with incident infection so may be overestimated)- antibody diagnosed % is % of all HIV positive MSM with a HCV test so may be underestimate if testing is targeted at high risk</t>
-  </si>
-  <si>
-    <t>Gay periodic Sydney 2011, self-report</t>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1043,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,12 +1053,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,7 +1087,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1324,8 +1146,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1643,157 +1463,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-    </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2009</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>0.73</v>
-      </c>
-      <c r="D3">
-        <f>C3*0.8846</f>
-        <v>0.64575800000000005</v>
-      </c>
-      <c r="H3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2011</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0.86</v>
-      </c>
-      <c r="H4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2011</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0.748</v>
-      </c>
-      <c r="H5" t="s">
-        <v>281</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="4"/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-      <c r="B2">
-        <v>0.75</v>
-      </c>
-      <c r="C2">
-        <v>0.47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +1740,7 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>90000</v>
+        <v>50000</v>
       </c>
       <c r="C22" t="s">
         <v>175</v>
@@ -2315,7 +1992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -2323,7 +2000,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,7 +2035,7 @@
         <v>91</v>
       </c>
       <c r="B3">
-        <v>798.8</v>
+        <v>1500</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
@@ -2369,7 +2046,7 @@
         <v>92</v>
       </c>
       <c r="B4">
-        <v>1577.54</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2396,7 +2073,7 @@
         <v>95</v>
       </c>
       <c r="B7">
-        <v>557.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -2412,7 +2089,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>446.7</v>
+        <v>1200</v>
       </c>
       <c r="D9" t="s">
         <v>129</v>
@@ -2423,7 +2100,7 @@
         <v>82</v>
       </c>
       <c r="B10">
-        <v>690.85</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2431,7 +2108,7 @@
         <v>83</v>
       </c>
       <c r="B11">
-        <v>565.66999999999996</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>130</v>
@@ -2442,7 +2119,7 @@
         <v>84</v>
       </c>
       <c r="B12">
-        <v>935.05</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2450,7 +2127,7 @@
         <v>85</v>
       </c>
       <c r="B13">
-        <v>15202.43</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2458,7 +2135,7 @@
         <v>86</v>
       </c>
       <c r="B14">
-        <v>10759.75</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2466,7 +2143,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>970.27</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -2477,7 +2154,7 @@
         <v>88</v>
       </c>
       <c r="B16" s="13">
-        <v>145565</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,7 +2162,7 @@
         <v>89</v>
       </c>
       <c r="B17">
-        <v>34.22</v>
+        <v>0</v>
       </c>
       <c r="D17" t="s">
         <v>96</v>
@@ -2504,7 +2181,7 @@
         <v>102</v>
       </c>
       <c r="B19">
-        <v>90.35</v>
+        <v>110</v>
       </c>
       <c r="D19" t="s">
         <v>97</v>
@@ -2515,7 +2192,7 @@
         <v>103</v>
       </c>
       <c r="B20">
-        <v>163.9</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
         <v>98</v>
@@ -2526,7 +2203,7 @@
         <v>104</v>
       </c>
       <c r="B21">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D21" t="s">
         <v>97</v>
@@ -2537,7 +2214,7 @@
         <v>101</v>
       </c>
       <c r="B22">
-        <v>355.8</v>
+        <v>0</v>
       </c>
       <c r="D22" t="s">
         <v>99</v>
@@ -2548,7 +2225,7 @@
         <v>106</v>
       </c>
       <c r="B23">
-        <v>151</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2556,7 +2233,7 @@
         <v>107</v>
       </c>
       <c r="B24">
-        <v>506.18</v>
+        <v>0</v>
       </c>
       <c r="D24" t="s">
         <v>100</v>
@@ -2567,7 +2244,7 @@
         <v>108</v>
       </c>
       <c r="B25">
-        <v>506.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2575,7 +2252,7 @@
         <v>109</v>
       </c>
       <c r="B26">
-        <v>538.67999999999995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2591,7 +2268,7 @@
         <v>208</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2607,7 +2284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -2998,7 +2675,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -3280,7 +2957,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3434,7 +3111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -3512,12 +3189,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,8 +3375,8 @@
       <c r="A21" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="B21" s="18">
-        <v>500</v>
+      <c r="B21">
+        <v>2500</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>243</v>
@@ -3709,8 +3386,8 @@
       <c r="A22" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="B22" s="20">
-        <v>494</v>
+      <c r="B22">
+        <v>2470</v>
       </c>
       <c r="C22" t="s">
         <v>244</v>
@@ -3720,8 +3397,8 @@
       <c r="A23" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="B23" s="20">
-        <v>494</v>
+      <c r="B23">
+        <v>2470</v>
       </c>
       <c r="C23" t="s">
         <v>245</v>
@@ -3731,48 +3408,48 @@
       <c r="A24" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="B24" s="20">
-        <v>797</v>
+      <c r="B24">
+        <v>3985</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="B25" s="20">
-        <v>1000</v>
+      <c r="B25">
+        <v>5000</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="B26" s="20">
-        <v>1100</v>
+      <c r="B26">
+        <v>5500</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="B27" s="20">
-        <v>1260</v>
+      <c r="B27">
+        <v>6300</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="B28" s="20">
-        <v>1239</v>
+      <c r="B28">
+        <v>6195</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="B29" s="20">
-        <v>2000</v>
+      <c r="B29">
+        <v>10000</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3780,7 +3457,7 @@
         <v>254</v>
       </c>
       <c r="B30" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3788,7 +3465,7 @@
         <v>256</v>
       </c>
       <c r="B31" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3799,13 +3476,299 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2016</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B4" si="0">($B$6-$B$30)/($A$6-$A$30)*(A2-$A$30)+$B$30</f>
+        <v>4865666.666666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>4740500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2014</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>4615333.333333334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <f>($B$6-$B$30)/($A$6-$A$30)*(A5-$A$30)+$B$30</f>
+        <v>4490166.666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2012</v>
+      </c>
+      <c r="B6">
+        <v>4365000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7">
+        <f>($B$6-$B$30)/($A$6-$A$30)*(A7-$A$30)+$B$30</f>
+        <v>4239833.333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:B29" si="1">($B$6-$B$30)/($A$6-$A$30)*(A8-$A$30)+$B$30</f>
+        <v>4114666.666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2009</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>3989500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>3864333.3333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="1"/>
+        <v>3739166.666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2006</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="1"/>
+        <v>3614000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2005</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>3488833.3333333335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2004</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>3363666.666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2003</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>3238500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2002</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>3113333.3333333335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2001</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>2988166.666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2000</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>2863000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1999</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>2737833.3333333335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>2612666.666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1997</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>2487500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1996</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>2362333.3333333335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1995</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>2237166.666666667</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1994</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>2112000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1993</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>1986833.3333333335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1992</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>1861666.6666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1991</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>1736500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1990</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>1611333.3333333333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1989</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>1486166.6666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1988</v>
+      </c>
+      <c r="B30">
+        <v>1361000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="193" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3826,64 +3789,44 @@
         <v>2015</v>
       </c>
       <c r="B2" s="11">
-        <v>230470</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
-        <v>2014</v>
+        <v>1995</v>
       </c>
       <c r="B3" s="11">
-        <v>230470</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
-        <v>2013</v>
+        <v>1980</v>
       </c>
       <c r="B4" s="11">
-        <v>230000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>2009</v>
-      </c>
-      <c r="B5" s="11">
-        <v>225000</v>
-      </c>
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="11">
-        <v>210000</v>
-      </c>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>2000</v>
-      </c>
-      <c r="B7" s="11">
-        <v>200000</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>1995</v>
-      </c>
-      <c r="B8" s="11">
-        <v>150000</v>
-      </c>
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>1980</v>
-      </c>
-      <c r="B9" s="11">
-        <v>25000</v>
-      </c>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
@@ -3948,26 +3891,6 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A1:B32">
@@ -3977,15 +3900,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4006,79 +3929,7 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>10790</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2014</v>
-      </c>
-      <c r="B3">
-        <v>10619</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2013</v>
-      </c>
-      <c r="B4">
-        <v>10403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2012</v>
-      </c>
-      <c r="B5">
-        <v>10083</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2011</v>
-      </c>
-      <c r="B6">
-        <v>10269</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2010</v>
-      </c>
-      <c r="B7">
-        <v>11212</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2009</v>
-      </c>
-      <c r="B8">
-        <v>11201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2008</v>
-      </c>
-      <c r="B9">
-        <v>11180</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10">
-        <v>12023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2006</v>
-      </c>
-      <c r="B11">
-        <v>12132</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4087,76 +3938,6 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="6" width="12.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2013</v>
-      </c>
-      <c r="B3">
-        <v>0.66520000000000001</v>
-      </c>
-      <c r="C3">
-        <v>0.1545</v>
-      </c>
-      <c r="D3">
-        <v>0.1202</v>
-      </c>
-      <c r="E3">
-        <v>4.8899999999999999E-2</v>
-      </c>
-      <c r="F3">
-        <v>1.12E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4168,53 +3949,61 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="6" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>263</v>
+        <v>7</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>264</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>266</v>
+        <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F2" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="B3">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1.5</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D3">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>268</v>
+        <v>0.06</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+      <c r="F3">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -4230,7 +4019,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4269,16 +4058,16 @@
         <v>2015</v>
       </c>
       <c r="B3" s="8">
-        <v>0.85</v>
+        <v>0.1</v>
       </c>
       <c r="C3" s="8">
-        <v>0.71</v>
+        <v>0.01</v>
       </c>
       <c r="D3" s="8">
-        <v>0.64</v>
+        <v>1E-3</v>
       </c>
       <c r="E3" s="8">
-        <v>0.24</v>
+        <v>1E-4</v>
       </c>
     </row>
   </sheetData>
@@ -4294,7 +4083,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4315,40 +4104,25 @@
         <v>2015</v>
       </c>
       <c r="B2" s="6">
-        <v>0.5</v>
+        <f>0.3*0.74</f>
+        <v>0.222</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2014</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2005</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.6</v>
-      </c>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
@@ -4360,14 +4134,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4405,110 +4179,60 @@
         <v>2015</v>
       </c>
       <c r="B3">
-        <f>0.8*cascade_all!B3</f>
-        <v>0.68</v>
+        <f>0.1*cascade_all!B3</f>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="C3">
-        <f>B3*0.46</f>
-        <v>0.31280000000000002</v>
+        <f>0.1*cascade_all!C3</f>
+        <v>1E-3</v>
       </c>
       <c r="D3">
-        <f>C3*0.9</f>
-        <v>0.28152000000000005</v>
+        <f>0.1*cascade_all!D3</f>
+        <v>1E-4</v>
       </c>
       <c r="E3">
-        <f>0.8*cascade_all!E3</f>
-        <v>0.192</v>
+        <f>0.1*cascade_all!E3</f>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
+    <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>269</v>
+        <v>136</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
-        <v>0.114</v>
-      </c>
-      <c r="D2">
-        <f>C2*(1-0.154)</f>
-        <v>9.6444000000000002E-2</v>
-      </c>
-      <c r="E2">
-        <v>2190</v>
-      </c>
-      <c r="F2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2003</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1.0699999999999999E-2</v>
-      </c>
-      <c r="D3">
-        <f>C3*(1-0.244)</f>
-        <v>8.0891999999999995E-3</v>
-      </c>
-      <c r="E3">
-        <v>1398</v>
-      </c>
-      <c r="F3" t="s">
-        <v>276</v>
-      </c>
-      <c r="G3" t="s">
-        <v>275</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -963,9 +963,6 @@
     <t>-LN(1-0.02), i.e. annual probability of 2%</t>
   </si>
   <si>
-    <t>1/14, i.e. 14 years</t>
-  </si>
-  <si>
     <t>rel_incidence_NSP</t>
   </si>
   <si>
@@ -979,13 +976,19 @@
   </si>
   <si>
     <t>Population</t>
+  </si>
+  <si>
+    <t>1/6, i.e. 6 years</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1042,8 +1045,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1053,6 +1063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,10 +1100,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1146,8 +1163,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1447,7 +1480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1"/>
@@ -1464,13 +1497,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1499,7 +1532,7 @@
         <v>145</v>
       </c>
       <c r="B2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
         <v>189</v>
@@ -1522,7 +1555,7 @@
         <v>147</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>191</v>
@@ -1544,8 +1577,8 @@
         <v>149</v>
       </c>
       <c r="B6">
-        <f>-LN(1-0.00044)</f>
-        <v>4.4009682840403613E-4</v>
+        <f>-LN(1-0.0035)</f>
+        <v>3.5061393292875899E-3</v>
       </c>
       <c r="C6" t="s">
         <v>187</v>
@@ -1559,8 +1592,8 @@
         <v>150</v>
       </c>
       <c r="B7">
-        <f>-LN(1-0.00066)</f>
-        <v>6.6021789587945585E-4</v>
+        <f>-LN(1-0.0045)</f>
+        <v>4.510155477886019E-3</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>193</v>
@@ -1571,8 +1604,8 @@
         <v>151</v>
       </c>
       <c r="B8">
-        <f>-LN(1-0.00066)</f>
-        <v>6.6021789587945585E-4</v>
+        <f>-LN(1-0.0055)</f>
+        <v>5.5151806881101112E-3</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>193</v>
@@ -1583,8 +1616,8 @@
         <v>152</v>
       </c>
       <c r="B9">
-        <f>-LN(1-0.00099)</f>
-        <v>9.9049037367338576E-4</v>
+        <f>-LN(1-0.00725)</f>
+        <v>7.276408970776185E-3</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>194</v>
@@ -1595,8 +1628,8 @@
         <v>153</v>
       </c>
       <c r="B10">
-        <f>-LN(1-0.00166)</f>
-        <v>1.6613793266661854E-3</v>
+        <f>-LN(1-0.01075)</f>
+        <v>1.0808198716603419E-2</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>195</v>
@@ -1607,8 +1640,8 @@
         <v>154</v>
       </c>
       <c r="B11">
-        <f>-LN(1-0.00516)</f>
-        <v>5.1733587739974654E-3</v>
+        <f>-LN(1-0.01775)</f>
+        <v>1.790942054356795E-2</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>196</v>
@@ -1619,8 +1652,8 @@
         <v>155</v>
       </c>
       <c r="B12">
-        <f>-LN(1-0.01414)</f>
-        <v>1.4240922290342446E-2</v>
+        <f>-LN(1-0.0415)</f>
+        <v>4.2385716496437846E-2</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>197</v>
@@ -1631,8 +1664,8 @@
         <v>156</v>
       </c>
       <c r="B13">
-        <f>-LN(1-0.04758)</f>
-        <v>4.874916500990898E-2</v>
+        <f>-LN(1-0.10575)</f>
+        <v>0.11176990084300994</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>198</v>
@@ -1643,8 +1676,8 @@
         <v>157</v>
       </c>
       <c r="B14">
-        <f>-LN(1-0.16045)</f>
-        <v>0.17488924497665875</v>
+        <f>-LN(1-0.25)</f>
+        <v>0.2876820724517809</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>199</v>
@@ -1655,8 +1688,8 @@
         <v>158</v>
       </c>
       <c r="B15">
-        <f>-LN(1-0.0096)</f>
-        <v>9.6463770518054499E-3</v>
+        <f>-LN(1-0.0096-0.0035)</f>
+        <v>1.3186561804175559E-2</v>
       </c>
       <c r="C15" t="s">
         <v>188</v>
@@ -1670,8 +1703,8 @@
         <v>159</v>
       </c>
       <c r="B16">
-        <f>-LN(1-0.0096)</f>
-        <v>9.6463770518054499E-3</v>
+        <f>-LN(1-0.0096-0.0045)</f>
+        <v>1.4200349401141401E-2</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>200</v>
@@ -1682,8 +1715,8 @@
         <v>160</v>
       </c>
       <c r="B17">
-        <f>-LN(1-0.0112)</f>
-        <v>1.1263192278710714E-2</v>
+        <f>-LN(1-0.0112-0.0055)</f>
+        <v>1.6841017196026445E-2</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>201</v>
@@ -1694,8 +1727,8 @@
         <v>203</v>
       </c>
       <c r="B18">
-        <f>-LN(1-0.0018)</f>
-        <v>1.8016219466282088E-3</v>
+        <f>-LN(1-0.0018-0.00725)</f>
+        <v>9.0912000117803447E-3</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>202</v>
@@ -1762,14 +1795,14 @@
         <v>16</v>
       </c>
       <c r="B24" s="17">
-        <f>1/14</f>
-        <v>7.1428571428571425E-2</v>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C24" t="s">
         <v>177</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1814,7 +1847,7 @@
         <v>20</v>
       </c>
       <c r="B28">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="s">
         <v>181</v>
@@ -1955,7 +1988,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B41">
         <v>0.48</v>
@@ -1963,7 +1996,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B42">
         <v>0.41</v>
@@ -1971,7 +2004,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B43">
         <v>0.21</v>
@@ -1979,7 +2012,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B44">
         <v>2.5</v>
@@ -1994,7 +2027,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet11">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
@@ -2286,7 +2319,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet12">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H20"/>
@@ -2677,12 +2710,12 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet13">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -2959,7 +2992,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet14">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:B17"/>
@@ -3113,6 +3146,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3191,6 +3225,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3476,6 +3511,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3492,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,13 +3798,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3788,37 +3824,49 @@
       <c r="A2" s="11">
         <v>2015</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="26">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="28">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="28">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="28">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="28">
         <v>1995</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B6" s="30">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="28">
+        <v>1980</v>
+      </c>
+      <c r="B7" s="30">
         <v>400000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>1980</v>
-      </c>
-      <c r="B4" s="11">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -3887,10 +3935,6 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A1:B32">
@@ -3902,7 +3946,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
@@ -3943,7 +3987,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet5">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
@@ -4013,7 +4057,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet6">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
@@ -4077,13 +4121,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B6"/>
+      <selection activeCell="A3" sqref="A3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4109,12 +4153,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
+      <c r="A3" s="27">
+        <v>2012</v>
+      </c>
+      <c r="B3" s="27">
+        <v>0.222</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="27">
+        <v>2010</v>
+      </c>
+      <c r="B4" s="27">
+        <v>0.222</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
@@ -4135,7 +4187,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
@@ -4202,13 +4254,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr codeName="Sheet9">
     <tabColor theme="4"/>
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4229,10 +4281,10 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -985,8 +985,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1104,7 +1105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1163,19 +1164,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1502,7 +1500,7 @@
   </sheetPr>
   <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -3804,7 +3802,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3824,28 +3822,28 @@
       <c r="A2" s="11">
         <v>2015</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="28">
         <v>1000000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="28">
+      <c r="A3" s="27">
         <v>2012</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="28">
+      <c r="A4" s="27">
         <v>2010</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="29">
         <v>1000000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="28">
+      <c r="A5" s="27">
         <v>2000</v>
       </c>
       <c r="B5" s="29">
@@ -3853,18 +3851,18 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="28">
+      <c r="A6" s="27">
         <v>1995</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="29">
         <v>800000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="28">
+      <c r="A7" s="27">
         <v>1980</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="29">
         <v>400000</v>
       </c>
     </row>
@@ -4127,7 +4125,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4153,28 +4151,52 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>2012</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="26">
         <v>0.222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>2010</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="26">
         <v>0.222</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="26">
+        <v>2005</v>
+      </c>
+      <c r="B5" s="26">
+        <v>0.222</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="6">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>1995</v>
+      </c>
+      <c r="B7" s="26">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>1990</v>
+      </c>
+      <c r="B8" s="26">
+        <v>0.222</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E11" s="3"/>
@@ -4192,7 +4214,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -985,9 +985,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1105,7 +1106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1170,12 +1171,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1501,7 +1505,7 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,7 +1741,7 @@
         <v>164</v>
       </c>
       <c r="B19" s="18">
-        <v>1000</v>
+        <v>100000</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>172</v>
@@ -1748,7 +1752,7 @@
         <v>165</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C20" t="s">
         <v>173</v>
@@ -1759,8 +1763,7 @@
         <v>166</v>
       </c>
       <c r="B21">
-        <f>B19*0.5</f>
-        <v>500</v>
+        <v>5000</v>
       </c>
       <c r="C21" t="s">
         <v>174</v>
@@ -3224,10 +3227,10 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3372,7 +3375,7 @@
         <v>1.0365</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -3380,7 +3383,7 @@
         <v>0.84970000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -3388,7 +3391,7 @@
         <v>8.3099999999999993E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -3404,88 +3407,123 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>234</v>
       </c>
       <c r="B21">
-        <v>2500</v>
+        <f>F21/10</f>
+        <v>250</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21" s="18">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>235</v>
       </c>
       <c r="B22">
-        <v>2470</v>
+        <f t="shared" ref="B22:B29" si="0">F22/10</f>
+        <v>247</v>
       </c>
       <c r="C22" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>236</v>
       </c>
       <c r="B23">
-        <v>2470</v>
+        <f t="shared" si="0"/>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>237</v>
       </c>
       <c r="B24">
+        <f t="shared" si="0"/>
+        <v>398.5</v>
+      </c>
+      <c r="F24">
         <v>3985</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>238</v>
       </c>
       <c r="B25">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F25">
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>239</v>
       </c>
       <c r="B26">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+      <c r="F26">
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>240</v>
       </c>
       <c r="B27">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="F27">
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>241</v>
       </c>
       <c r="B28">
+        <f t="shared" si="0"/>
+        <v>619.5</v>
+      </c>
+      <c r="F28">
         <v>6195</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>242</v>
       </c>
       <c r="B29">
+        <v>600</v>
+      </c>
+      <c r="F29">
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>254</v>
       </c>
@@ -3493,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>256</v>
       </c>
@@ -3510,18 +3548,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3529,136 +3568,138 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="32">
         <f t="shared" ref="B2:B4" si="0">($B$6-$B$30)/($A$6-$A$30)*(A2-$A$30)+$B$30</f>
         <v>4865666.666666667</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="31"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="32">
         <f t="shared" si="0"/>
         <v>4740500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="32">
         <f t="shared" si="0"/>
         <v>4615333.333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="32">
         <f>($B$6-$B$30)/($A$6-$A$30)*(A5-$A$30)+$B$30</f>
         <v>4490166.666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="32">
         <v>4365000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2011</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="32">
         <f>($B$6-$B$30)/($A$6-$A$30)*(A7-$A$30)+$B$30</f>
         <v>4239833.333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2010</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="32">
         <f t="shared" ref="B8:B29" si="1">($B$6-$B$30)/($A$6-$A$30)*(A8-$A$30)+$B$30</f>
         <v>4114666.666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="32">
         <f t="shared" si="1"/>
         <v>3989500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="32">
         <f t="shared" si="1"/>
         <v>3864333.3333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2007</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="32">
         <f t="shared" si="1"/>
         <v>3739166.666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2006</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="32">
         <f t="shared" si="1"/>
         <v>3614000</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12" s="31"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2005</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="32">
         <f t="shared" si="1"/>
         <v>3488833.3333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2004</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="32">
         <f t="shared" si="1"/>
         <v>3363666.666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="32">
         <f t="shared" si="1"/>
         <v>3238500</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="32">
         <f t="shared" si="1"/>
         <v>3113333.3333333335</v>
       </c>
@@ -3667,7 +3708,7 @@
       <c r="A17">
         <v>2001</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="32">
         <f t="shared" si="1"/>
         <v>2988166.666666667</v>
       </c>
@@ -3676,7 +3717,7 @@
       <c r="A18">
         <v>2000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="32">
         <f t="shared" si="1"/>
         <v>2863000</v>
       </c>
@@ -3685,7 +3726,7 @@
       <c r="A19">
         <v>1999</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="32">
         <f t="shared" si="1"/>
         <v>2737833.3333333335</v>
       </c>
@@ -3694,7 +3735,7 @@
       <c r="A20">
         <v>1998</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="32">
         <f t="shared" si="1"/>
         <v>2612666.666666667</v>
       </c>
@@ -3703,7 +3744,7 @@
       <c r="A21">
         <v>1997</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="32">
         <f t="shared" si="1"/>
         <v>2487500</v>
       </c>
@@ -3712,7 +3753,7 @@
       <c r="A22">
         <v>1996</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="32">
         <f t="shared" si="1"/>
         <v>2362333.3333333335</v>
       </c>
@@ -3721,7 +3762,7 @@
       <c r="A23">
         <v>1995</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="32">
         <f t="shared" si="1"/>
         <v>2237166.666666667</v>
       </c>
@@ -3730,7 +3771,7 @@
       <c r="A24">
         <v>1994</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="32">
         <f t="shared" si="1"/>
         <v>2112000</v>
       </c>
@@ -3739,7 +3780,7 @@
       <c r="A25">
         <v>1993</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="32">
         <f t="shared" si="1"/>
         <v>1986833.3333333335</v>
       </c>
@@ -3748,7 +3789,7 @@
       <c r="A26">
         <v>1992</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="32">
         <f t="shared" si="1"/>
         <v>1861666.6666666667</v>
       </c>
@@ -3757,7 +3798,7 @@
       <c r="A27">
         <v>1991</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="32">
         <f t="shared" si="1"/>
         <v>1736500</v>
       </c>
@@ -3766,7 +3807,7 @@
       <c r="A28">
         <v>1990</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="32">
         <f t="shared" si="1"/>
         <v>1611333.3333333333</v>
       </c>
@@ -3775,7 +3816,7 @@
       <c r="A29">
         <v>1989</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="32">
         <f t="shared" si="1"/>
         <v>1486166.6666666667</v>
       </c>
@@ -3784,9 +3825,12 @@
       <c r="A30">
         <v>1988</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="32">
         <v>1361000</v>
       </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3801,8 +3845,8 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3823,47 +3867,47 @@
         <v>2015</v>
       </c>
       <c r="B2" s="28">
-        <v>1000000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>2012</v>
       </c>
-      <c r="B3" s="29">
-        <v>1000000</v>
+      <c r="B3" s="28">
+        <v>70000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2010</v>
       </c>
-      <c r="B4" s="29">
-        <v>1000000</v>
+      <c r="B4" s="28">
+        <v>70000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="29">
-        <v>1000000</v>
+        <v>2005</v>
+      </c>
+      <c r="B5" s="28">
+        <v>70000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
-        <v>1995</v>
+        <v>2000</v>
       </c>
       <c r="B6" s="29">
-        <v>800000</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
-        <v>1980</v>
+        <v>1995</v>
       </c>
       <c r="B7" s="29">
-        <v>400000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4214,7 +4258,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="266">
   <si>
     <t>Year</t>
   </si>
@@ -979,6 +979,12 @@
   </si>
   <si>
     <t>1/6, i.e. 6 years</t>
+  </si>
+  <si>
+    <t>c_cascade2_serum</t>
+  </si>
+  <si>
+    <t>c_cascade2_DBS</t>
   </si>
 </sst>
 </file>
@@ -2031,10 +2037,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2311,6 +2317,22 @@
       </c>
       <c r="B29">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>264</v>
+      </c>
+      <c r="B30">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>265</v>
+      </c>
+      <c r="B31">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -3230,7 +3252,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="B15" sqref="B15:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3258,7 +3280,7 @@
         <v>246</v>
       </c>
       <c r="B2" s="25">
-        <v>0.1</v>
+        <v>0.42749999999999999</v>
       </c>
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
@@ -3268,7 +3290,7 @@
         <v>216</v>
       </c>
       <c r="B3" s="18">
-        <v>7.3099999999999998E-2</v>
+        <v>7.3000000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3276,7 +3298,7 @@
         <v>217</v>
       </c>
       <c r="B4">
-        <v>3.4599999999999999E-2</v>
+        <v>3.5000000000000001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3284,7 +3306,7 @@
         <v>218</v>
       </c>
       <c r="B5">
-        <v>0.17469999999999999</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3292,7 +3314,7 @@
         <v>219</v>
       </c>
       <c r="B6">
-        <v>8.3099999999999993E-2</v>
+        <v>8.3000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3316,7 +3338,7 @@
         <v>222</v>
       </c>
       <c r="B9" s="18">
-        <v>0.4914</v>
+        <v>4.9099999999999998E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3324,7 +3346,7 @@
         <v>223</v>
       </c>
       <c r="B10">
-        <v>1.0365</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3332,7 +3354,7 @@
         <v>224</v>
       </c>
       <c r="B11">
-        <v>0.84970000000000001</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3340,7 +3362,7 @@
         <v>225</v>
       </c>
       <c r="B12">
-        <v>8.3099999999999993E-2</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,7 +3386,7 @@
         <v>228</v>
       </c>
       <c r="B15" s="18">
-        <v>0.55620000000000003</v>
+        <v>4.9099999999999998E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3372,7 +3394,7 @@
         <v>229</v>
       </c>
       <c r="B16">
-        <v>1.0365</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3380,7 +3402,7 @@
         <v>230</v>
       </c>
       <c r="B17">
-        <v>0.84970000000000001</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,7 +3410,7 @@
         <v>231</v>
       </c>
       <c r="B18">
-        <v>8.3099999999999993E-2</v>
+        <v>0.1037</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3427,7 +3449,7 @@
         <v>235</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B29" si="0">F22/10</f>
+        <f t="shared" ref="B22:B23" si="0">F22/10</f>
         <v>247</v>
       </c>
       <c r="C22" t="s">
@@ -3457,8 +3479,7 @@
         <v>237</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>398.5</v>
+        <v>1000</v>
       </c>
       <c r="F24">
         <v>3985</v>
@@ -3469,8 +3490,7 @@
         <v>238</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F25">
         <v>5000</v>
@@ -3481,8 +3501,7 @@
         <v>239</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="F26">
         <v>5500</v>
@@ -3493,8 +3512,7 @@
         <v>240</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>630</v>
+        <v>500</v>
       </c>
       <c r="F27">
         <v>6300</v>
@@ -3505,8 +3523,7 @@
         <v>241</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>619.5</v>
+        <v>500</v>
       </c>
       <c r="F28">
         <v>6195</v>
@@ -3517,7 +3534,7 @@
         <v>242</v>
       </c>
       <c r="B29">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F29">
         <v>10000</v>
@@ -3845,7 +3862,7 @@
   </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -163,7 +163,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="267">
   <si>
     <t>Year</t>
   </si>
@@ -985,6 +985,9 @@
   </si>
   <si>
     <t>c_cascade2_DBS</t>
+  </si>
+  <si>
+    <t>diagnosed_risk_reduction</t>
   </si>
 </sst>
 </file>
@@ -1508,10 +1511,10 @@
   <sheetPr codeName="Sheet10">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,6 +2026,14 @@
       </c>
       <c r="B44">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2039,7 +2050,7 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -3252,7 +3263,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3434,8 +3445,7 @@
         <v>234</v>
       </c>
       <c r="B21">
-        <f>F21/10</f>
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>243</v>
@@ -3449,8 +3459,7 @@
         <v>235</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B23" si="0">F22/10</f>
-        <v>247</v>
+        <v>1000</v>
       </c>
       <c r="C22" t="s">
         <v>244</v>
@@ -3464,8 +3473,7 @@
         <v>236</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>247</v>
+        <v>1000</v>
       </c>
       <c r="C23" t="s">
         <v>245</v>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\HCVelimination\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -26,7 +31,7 @@
     <sheet name="structure" sheetId="14" r:id="rId17"/>
     <sheet name="calibration_guess" sheetId="15" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -36,7 +41,7 @@
     <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +75,7 @@
     <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -94,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +133,7 @@
     <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="B39" authorId="0">
+    <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0">
+    <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +182,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +233,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -257,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="283">
   <si>
     <t>Year</t>
   </si>
@@ -1152,11 +1157,14 @@
   <si>
     <t>Gay periodic Sydney 2011, self-report</t>
   </si>
+  <si>
+    <t>import_age</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1336,6 +1344,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1383,7 +1394,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1418,7 +1429,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1790,10 +1801,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:D44"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2306,6 +2317,14 @@
       </c>
       <c r="B44">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>282</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4434,7 +4453,7 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\HCVelimination\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
   </bookViews>
@@ -24,7 +29,7 @@
     <sheet name="structure" sheetId="14" r:id="rId15"/>
     <sheet name="calibration_guess" sheetId="15" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -34,7 +39,7 @@
     <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="B39" authorId="0">
+    <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B40" authorId="0">
+    <comment ref="D40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -993,7 +998,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -1115,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1180,15 +1185,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1199,6 +1199,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1247,7 +1250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1282,7 +1285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1513,8 +1516,8 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,7 +1914,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -1923,7 +1926,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -1934,7 +1937,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -1945,7 +1948,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -1956,7 +1959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>248</v>
       </c>
@@ -1967,7 +1970,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -1978,7 +1981,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -1987,16 +1990,19 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>255</v>
       </c>
       <c r="B40">
+        <v>0.5</v>
+      </c>
+      <c r="D40">
         <f>1/0.29</f>
         <v>3.4482758620689657</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -2004,7 +2010,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -2020,7 +2026,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>266</v>
       </c>
@@ -2051,7 +2057,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,7 +2146,7 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>1200</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
         <v>129</v>
@@ -2151,7 +2157,7 @@
         <v>82</v>
       </c>
       <c r="B10">
-        <v>1200</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -2170,7 +2176,7 @@
         <v>84</v>
       </c>
       <c r="B12">
-        <v>3300</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -2178,7 +2184,7 @@
         <v>85</v>
       </c>
       <c r="B13">
-        <v>3300</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -2186,7 +2192,7 @@
         <v>86</v>
       </c>
       <c r="B14">
-        <v>3300</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -2194,7 +2200,7 @@
         <v>87</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>131</v>
@@ -3263,7 +3269,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3445,7 +3451,7 @@
         <v>234</v>
       </c>
       <c r="B21">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>243</v>
@@ -3459,7 +3465,7 @@
         <v>235</v>
       </c>
       <c r="B22">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C22" t="s">
         <v>244</v>
@@ -3473,7 +3479,7 @@
         <v>236</v>
       </c>
       <c r="B23">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="C23" t="s">
         <v>245</v>
@@ -3487,7 +3493,7 @@
         <v>237</v>
       </c>
       <c r="B24">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F24">
         <v>3985</v>
@@ -3498,7 +3504,7 @@
         <v>238</v>
       </c>
       <c r="B25">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F25">
         <v>5000</v>
@@ -3509,7 +3515,7 @@
         <v>239</v>
       </c>
       <c r="B26">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F26">
         <v>5500</v>
@@ -3520,7 +3526,7 @@
         <v>240</v>
       </c>
       <c r="B27">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F27">
         <v>6300</v>
@@ -3531,7 +3537,7 @@
         <v>241</v>
       </c>
       <c r="B28">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F28">
         <v>6195</v>
@@ -3542,7 +3548,7 @@
         <v>242</v>
       </c>
       <c r="B29">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F29">
         <v>10000</v>
@@ -3597,17 +3603,17 @@
       <c r="A2">
         <v>2016</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="30">
         <f t="shared" ref="B2:B4" si="0">($B$6-$B$30)/($A$6-$A$30)*(A2-$A$30)+$B$30</f>
         <v>4865666.666666667</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="29"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2015</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3" s="30">
         <f t="shared" si="0"/>
         <v>4740500</v>
       </c>
@@ -3616,7 +3622,7 @@
       <c r="A4">
         <v>2014</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="30">
         <f t="shared" si="0"/>
         <v>4615333.333333334</v>
       </c>
@@ -3625,7 +3631,7 @@
       <c r="A5">
         <v>2013</v>
       </c>
-      <c r="B5" s="32">
+      <c r="B5" s="30">
         <f>($B$6-$B$30)/($A$6-$A$30)*(A5-$A$30)+$B$30</f>
         <v>4490166.666666667</v>
       </c>
@@ -3634,7 +3640,7 @@
       <c r="A6">
         <v>2012</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>4365000</v>
       </c>
     </row>
@@ -3642,7 +3648,7 @@
       <c r="A7">
         <v>2011</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <f>($B$6-$B$30)/($A$6-$A$30)*(A7-$A$30)+$B$30</f>
         <v>4239833.333333334</v>
       </c>
@@ -3651,7 +3657,7 @@
       <c r="A8">
         <v>2010</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <f t="shared" ref="B8:B29" si="1">($B$6-$B$30)/($A$6-$A$30)*(A8-$A$30)+$B$30</f>
         <v>4114666.666666667</v>
       </c>
@@ -3660,7 +3666,7 @@
       <c r="A9">
         <v>2009</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="30">
         <f t="shared" si="1"/>
         <v>3989500</v>
       </c>
@@ -3669,7 +3675,7 @@
       <c r="A10">
         <v>2008</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <f t="shared" si="1"/>
         <v>3864333.3333333335</v>
       </c>
@@ -3678,7 +3684,7 @@
       <c r="A11">
         <v>2007</v>
       </c>
-      <c r="B11" s="32">
+      <c r="B11" s="30">
         <f t="shared" si="1"/>
         <v>3739166.666666667</v>
       </c>
@@ -3687,17 +3693,17 @@
       <c r="A12">
         <v>2006</v>
       </c>
-      <c r="B12" s="32">
+      <c r="B12" s="30">
         <f t="shared" si="1"/>
         <v>3614000</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2005</v>
       </c>
-      <c r="B13" s="32">
+      <c r="B13" s="30">
         <f t="shared" si="1"/>
         <v>3488833.3333333335</v>
       </c>
@@ -3706,7 +3712,7 @@
       <c r="A14">
         <v>2004</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="30">
         <f t="shared" si="1"/>
         <v>3363666.666666667</v>
       </c>
@@ -3715,7 +3721,7 @@
       <c r="A15">
         <v>2003</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B15" s="30">
         <f t="shared" si="1"/>
         <v>3238500</v>
       </c>
@@ -3724,7 +3730,7 @@
       <c r="A16">
         <v>2002</v>
       </c>
-      <c r="B16" s="32">
+      <c r="B16" s="30">
         <f t="shared" si="1"/>
         <v>3113333.3333333335</v>
       </c>
@@ -3733,7 +3739,7 @@
       <c r="A17">
         <v>2001</v>
       </c>
-      <c r="B17" s="32">
+      <c r="B17" s="30">
         <f t="shared" si="1"/>
         <v>2988166.666666667</v>
       </c>
@@ -3742,7 +3748,7 @@
       <c r="A18">
         <v>2000</v>
       </c>
-      <c r="B18" s="32">
+      <c r="B18" s="30">
         <f t="shared" si="1"/>
         <v>2863000</v>
       </c>
@@ -3751,7 +3757,7 @@
       <c r="A19">
         <v>1999</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="30">
         <f t="shared" si="1"/>
         <v>2737833.3333333335</v>
       </c>
@@ -3760,7 +3766,7 @@
       <c r="A20">
         <v>1998</v>
       </c>
-      <c r="B20" s="32">
+      <c r="B20" s="30">
         <f t="shared" si="1"/>
         <v>2612666.666666667</v>
       </c>
@@ -3769,7 +3775,7 @@
       <c r="A21">
         <v>1997</v>
       </c>
-      <c r="B21" s="32">
+      <c r="B21" s="30">
         <f t="shared" si="1"/>
         <v>2487500</v>
       </c>
@@ -3778,7 +3784,7 @@
       <c r="A22">
         <v>1996</v>
       </c>
-      <c r="B22" s="32">
+      <c r="B22" s="30">
         <f t="shared" si="1"/>
         <v>2362333.3333333335</v>
       </c>
@@ -3787,7 +3793,7 @@
       <c r="A23">
         <v>1995</v>
       </c>
-      <c r="B23" s="32">
+      <c r="B23" s="30">
         <f t="shared" si="1"/>
         <v>2237166.666666667</v>
       </c>
@@ -3796,7 +3802,7 @@
       <c r="A24">
         <v>1994</v>
       </c>
-      <c r="B24" s="32">
+      <c r="B24" s="30">
         <f t="shared" si="1"/>
         <v>2112000</v>
       </c>
@@ -3805,7 +3811,7 @@
       <c r="A25">
         <v>1993</v>
       </c>
-      <c r="B25" s="32">
+      <c r="B25" s="30">
         <f t="shared" si="1"/>
         <v>1986833.3333333335</v>
       </c>
@@ -3814,7 +3820,7 @@
       <c r="A26">
         <v>1992</v>
       </c>
-      <c r="B26" s="32">
+      <c r="B26" s="30">
         <f t="shared" si="1"/>
         <v>1861666.6666666667</v>
       </c>
@@ -3823,7 +3829,7 @@
       <c r="A27">
         <v>1991</v>
       </c>
-      <c r="B27" s="32">
+      <c r="B27" s="30">
         <f t="shared" si="1"/>
         <v>1736500</v>
       </c>
@@ -3832,7 +3838,7 @@
       <c r="A28">
         <v>1990</v>
       </c>
-      <c r="B28" s="32">
+      <c r="B28" s="30">
         <f t="shared" si="1"/>
         <v>1611333.3333333333</v>
       </c>
@@ -3841,7 +3847,7 @@
       <c r="A29">
         <v>1989</v>
       </c>
-      <c r="B29" s="32">
+      <c r="B29" s="30">
         <f t="shared" si="1"/>
         <v>1486166.6666666667</v>
       </c>
@@ -3850,12 +3856,12 @@
       <c r="A30">
         <v>1988</v>
       </c>
-      <c r="B30" s="32">
+      <c r="B30" s="30">
         <v>1361000</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+      <c r="B31" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3871,7 +3877,7 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3891,48 +3897,54 @@
       <c r="A2" s="11">
         <v>2015</v>
       </c>
-      <c r="B2" s="28">
-        <v>70000</v>
+      <c r="B2" s="31">
+        <f>70000*(130/60)</f>
+        <v>151666.66666666666</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="27">
         <v>2012</v>
       </c>
-      <c r="B3" s="28">
-        <v>70000</v>
+      <c r="B3" s="31">
+        <f>70000*(130/60)</f>
+        <v>151666.66666666666</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>2010</v>
       </c>
-      <c r="B4" s="28">
-        <v>70000</v>
+      <c r="B4" s="31">
+        <f>70000*(130/60)</f>
+        <v>151666.66666666666</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="27">
         <v>2005</v>
       </c>
-      <c r="B5" s="28">
-        <v>70000</v>
+      <c r="B5" s="31">
+        <f>70000*(130/60)</f>
+        <v>151666.66666666666</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="27">
         <v>2000</v>
       </c>
-      <c r="B6" s="29">
-        <v>70000</v>
+      <c r="B6" s="31">
+        <f>70000*(130/60)</f>
+        <v>151666.66666666666</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="27">
         <v>1995</v>
       </c>
-      <c r="B7" s="29">
-        <v>40000</v>
+      <c r="B7" s="31">
+        <f>40000*(130/60)</f>
+        <v>86666.666666666657</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4194,7 +4206,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,8 +4227,7 @@
         <v>2015</v>
       </c>
       <c r="B2" s="6">
-        <f>0.3*0.74</f>
-        <v>0.222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4224,7 +4235,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="26">
-        <v>0.222</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -4232,7 +4243,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="26">
-        <v>0.222</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4240,7 +4251,7 @@
         <v>2005</v>
       </c>
       <c r="B5" s="26">
-        <v>0.222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4248,7 +4259,7 @@
         <v>2000</v>
       </c>
       <c r="B6" s="6">
-        <v>0.222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -4256,7 +4267,7 @@
         <v>1995</v>
       </c>
       <c r="B7" s="26">
-        <v>0.222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -4264,7 +4275,7 @@
         <v>1990</v>
       </c>
       <c r="B8" s="26">
-        <v>0.222</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -39,7 +39,7 @@
     <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="B39" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1517,7 +1517,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1986,6 +1986,9 @@
         <v>253</v>
       </c>
       <c r="B39">
+        <v>0.25</v>
+      </c>
+      <c r="D39">
         <f>6.5/12</f>
         <v>0.54166666666666663</v>
       </c>
@@ -1995,7 +1998,7 @@
         <v>255</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D40">
         <f>1/0.29</f>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -1516,7 +1516,7 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2059,8 +2059,8 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2241,7 +2241,7 @@
         <v>102</v>
       </c>
       <c r="B19">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="D19" t="s">
         <v>97</v>
@@ -2252,7 +2252,7 @@
         <v>103</v>
       </c>
       <c r="B20">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D20" t="s">
         <v>98</v>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -2059,7 +2059,7 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -3877,10 +3877,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3901,8 +3901,7 @@
         <v>2015</v>
       </c>
       <c r="B2" s="31">
-        <f>70000*(130/60)</f>
-        <v>151666.66666666666</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -3910,8 +3909,7 @@
         <v>2012</v>
       </c>
       <c r="B3" s="31">
-        <f>70000*(130/60)</f>
-        <v>151666.66666666666</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3919,8 +3917,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="31">
-        <f>70000*(130/60)</f>
-        <v>151666.66666666666</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3928,8 +3925,7 @@
         <v>2005</v>
       </c>
       <c r="B5" s="31">
-        <f>70000*(130/60)</f>
-        <v>151666.66666666666</v>
+        <v>110000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3937,18 +3933,12 @@
         <v>2000</v>
       </c>
       <c r="B6" s="31">
-        <f>70000*(130/60)</f>
-        <v>151666.66666666666</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <v>1995</v>
-      </c>
-      <c r="B7" s="31">
-        <f>40000*(130/60)</f>
-        <v>86666.666666666657</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
@@ -4013,10 +4003,6 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
     </row>
   </sheetData>
   <sortState ref="A1:B32">
@@ -4206,10 +4192,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A7" sqref="A7:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4246,7 +4232,7 @@
         <v>2010</v>
       </c>
       <c r="B4" s="26">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -4254,7 +4240,7 @@
         <v>2005</v>
       </c>
       <c r="B5" s="26">
-        <v>0.4</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -4262,27 +4248,11 @@
         <v>2000</v>
       </c>
       <c r="B6" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="26">
-        <v>1995</v>
-      </c>
-      <c r="B7" s="26">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26">
-        <v>1990</v>
-      </c>
-      <c r="B8" s="26">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="3"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Desktop\HCVelimination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\HCVelimination\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -1503,7 +1503,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1517,17 +1517,17 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>148</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -1736,7 +1736,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>164</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -1803,13 +1803,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="17">
-        <f>1/6</f>
-        <v>0.16666666666666666</v>
+        <f>1/22</f>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="C24" t="s">
         <v>177</v>
@@ -1818,7 +1818,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1844,7 +1844,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1855,7 +1855,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -1948,7 +1948,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>248</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>3.4482758620689657</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -2021,15 +2021,16 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>260</v>
       </c>
       <c r="B43">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <f>B41</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>266</v>
       </c>
@@ -2060,16 +2061,16 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -2082,7 +2083,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -2090,7 +2091,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2120,7 +2121,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2144,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2163,7 +2164,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2174,7 +2175,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -2182,7 +2183,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -2190,7 +2191,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2198,7 +2199,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2209,7 +2210,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
@@ -2217,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2228,7 +2229,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2247,7 +2248,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2258,7 +2259,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2269,7 +2270,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2288,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -2307,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2315,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -2331,7 +2332,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -2339,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -2347,7 +2348,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>265</v>
       </c>
@@ -2371,12 +2372,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
@@ -2393,7 +2394,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>120</v>
       </c>
@@ -2413,7 +2414,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
@@ -2424,7 +2425,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>121</v>
       </c>
@@ -2445,7 +2446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>122</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>123</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>205</v>
       </c>
@@ -2498,7 +2499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>206</v>
       </c>
@@ -2512,7 +2513,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>207</v>
       </c>
@@ -2526,7 +2527,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>126</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>110</v>
       </c>
@@ -2563,7 +2564,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>111</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>112</v>
       </c>
@@ -2603,7 +2604,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>113</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>114</v>
       </c>
@@ -2643,7 +2644,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>115</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>116</v>
       </c>
@@ -2683,7 +2684,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>117</v>
       </c>
@@ -2706,7 +2707,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>118</v>
       </c>
@@ -2726,7 +2727,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>119</v>
       </c>
@@ -2762,14 +2763,14 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2795,7 +2796,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2810,7 +2811,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2822,7 +2823,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2834,7 +2835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2846,7 +2847,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2858,7 +2859,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2894,7 +2895,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2918,7 +2919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2930,7 +2931,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2942,7 +2943,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2966,7 +2967,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -2978,7 +2979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -2990,7 +2991,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3017,7 +3018,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3044,9 +3045,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -3062,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -3086,7 +3087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -3094,7 +3095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -3102,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -3110,7 +3111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -3118,7 +3119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -3134,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -3142,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -3166,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -3196,13 +3197,13 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -3213,7 +3214,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -3221,7 +3222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -3229,7 +3230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -3245,7 +3246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -3253,7 +3254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -3275,13 +3276,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>246</v>
       </c>
@@ -3305,7 +3306,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>216</v>
       </c>
@@ -3313,7 +3314,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -3329,7 +3330,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -3337,7 +3338,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>222</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -3369,7 +3370,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>225</v>
       </c>
@@ -3385,7 +3386,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -3393,7 +3394,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -3401,7 +3402,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>228</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -3417,7 +3418,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -3425,7 +3426,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -3441,7 +3442,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -3449,7 +3450,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>234</v>
       </c>
@@ -3463,7 +3464,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>235</v>
       </c>
@@ -3477,7 +3478,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>236</v>
       </c>
@@ -3491,7 +3492,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>237</v>
       </c>
@@ -3502,7 +3503,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>238</v>
       </c>
@@ -3513,7 +3514,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>239</v>
       </c>
@@ -3524,7 +3525,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>240</v>
       </c>
@@ -3535,7 +3536,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>241</v>
       </c>
@@ -3546,7 +3547,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>242</v>
       </c>
@@ -3557,7 +3558,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>254</v>
       </c>
@@ -3565,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>256</v>
       </c>
@@ -3588,13 +3589,13 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3602,7 +3603,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -3612,7 +3613,7 @@
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>4740500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -3630,7 +3631,7 @@
         <v>4615333.333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>4490166.666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>4365000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -3656,7 +3657,7 @@
         <v>4239833.333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -3665,7 +3666,7 @@
         <v>4114666.666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>3989500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>3864333.3333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -3692,7 +3693,7 @@
         <v>3739166.666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2006</v>
       </c>
@@ -3702,7 +3703,7 @@
       </c>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -3711,7 +3712,7 @@
         <v>3488833.3333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2004</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>3363666.666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -3729,7 +3730,7 @@
         <v>3238500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -3738,7 +3739,7 @@
         <v>3113333.3333333335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -3747,7 +3748,7 @@
         <v>2988166.666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -3756,7 +3757,7 @@
         <v>2863000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -3765,7 +3766,7 @@
         <v>2737833.3333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -3774,7 +3775,7 @@
         <v>2612666.666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1997</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>2487500</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1996</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>2362333.3333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1995</v>
       </c>
@@ -3801,7 +3802,7 @@
         <v>2237166.666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1994</v>
       </c>
@@ -3810,7 +3811,7 @@
         <v>2112000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>1986833.3333333335</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1992</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>1861666.6666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>1736500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1990</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>1611333.3333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1989</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>1486166.6666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1988</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>1361000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" s="28"/>
     </row>
   </sheetData>
@@ -3880,15 +3881,15 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3896,111 +3897,111 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>2015</v>
       </c>
       <c r="B2" s="31">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="27">
         <v>2012</v>
       </c>
       <c r="B3" s="31">
-        <v>130000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>2010</v>
       </c>
       <c r="B4" s="31">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="27">
         <v>2005</v>
       </c>
       <c r="B5" s="31">
-        <v>110000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="27">
         <v>2000</v>
       </c>
       <c r="B6" s="31">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
@@ -4023,12 +4024,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4036,7 +4037,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4061,15 +4062,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="6" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
@@ -4078,7 +4079,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4098,7 +4099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -4134,13 +4135,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="5" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
@@ -4148,7 +4149,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4165,7 +4166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2015</v>
       </c>
@@ -4195,15 +4196,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4211,47 +4212,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>2015</v>
       </c>
       <c r="B2" s="6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="B3" s="26">
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
-        <v>2010</v>
+        <v>2005</v>
       </c>
       <c r="B4" s="26">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="26">
-        <v>2005</v>
+        <v>2000</v>
       </c>
       <c r="B5" s="26">
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
   </sheetData>
@@ -4271,12 +4268,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
+    <col min="2" max="5" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
@@ -4284,7 +4281,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4301,7 +4298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4335,12 +4332,12 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4351,15 +4348,15 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -1120,7 +1120,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1189,6 +1189,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1516,8 +1517,8 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1985,7 +1986,7 @@
       <c r="A39" t="s">
         <v>253</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="32">
         <v>0.25</v>
       </c>
       <c r="D39">
@@ -3880,7 +3881,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4195,7 +4196,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="270">
   <si>
     <t>Year</t>
   </si>
@@ -993,6 +993,15 @@
   </si>
   <si>
     <t>diagnosed_risk_reduction</t>
+  </si>
+  <si>
+    <t>c_NSP</t>
+  </si>
+  <si>
+    <t>c_OST</t>
+  </si>
+  <si>
+    <t>133 eurospeper year</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1776,7 +1785,7 @@
         <v>166</v>
       </c>
       <c r="B21">
-        <v>5000</v>
+        <v>40000</v>
       </c>
       <c r="C21" t="s">
         <v>174</v>
@@ -1987,7 +1996,7 @@
         <v>253</v>
       </c>
       <c r="B39" s="32">
-        <v>0.25</v>
+        <v>100</v>
       </c>
       <c r="D39">
         <f>6.5/12</f>
@@ -1999,7 +2008,7 @@
         <v>255</v>
       </c>
       <c r="B40">
-        <v>0.25</v>
+        <v>100</v>
       </c>
       <c r="D40">
         <f>1/0.29</f>
@@ -2059,10 +2068,10 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2330,7 +2339,7 @@
         <v>208</v>
       </c>
       <c r="B28">
-        <v>2100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
@@ -2349,12 +2358,31 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="13">
         <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="B32" s="20">
+        <v>155</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B33">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -1526,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1763,7 +1763,7 @@
         <v>164</v>
       </c>
       <c r="B19" s="18">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>172</v>
@@ -2070,7 +2070,7 @@
   </sheetPr>
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3615,7 +3615,7 @@
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4224,7 +4224,7 @@
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1527,7 +1527,7 @@
   <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1774,7 +1774,7 @@
         <v>165</v>
       </c>
       <c r="B20">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C20" t="s">
         <v>173</v>
@@ -3910,7 +3910,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3951,20 +3951,12 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="27">
-        <v>2005</v>
-      </c>
-      <c r="B5" s="31">
-        <v>40000</v>
-      </c>
+      <c r="A5" s="27"/>
+      <c r="B5" s="31"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="27">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="31">
-        <v>35000</v>
-      </c>
+      <c r="A6" s="27"/>
+      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
@@ -4225,7 +4217,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4251,7 +4243,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B3" s="26">
         <v>0.2</v>
@@ -4259,19 +4251,15 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="B4" s="26">
         <v>0.18</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="26">
-        <v>0.15</v>
-      </c>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\HCVelimination\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -29,7 +24,7 @@
     <sheet name="structure" sheetId="14" r:id="rId15"/>
     <sheet name="calibration_guess" sheetId="15" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -39,7 +34,7 @@
     <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="D39" authorId="0" shapeId="0">
+    <comment ref="D39" authorId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0" shapeId="0">
+    <comment ref="D40" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B41" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B42" authorId="0">
       <text>
         <r>
           <rPr>
@@ -139,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1007,11 +1002,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1127,7 +1122,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1194,8 +1189,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1260,7 +1255,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1295,7 +1290,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1513,7 +1508,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1526,18 +1521,18 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="3" max="3" width="63.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -1551,7 +1546,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1562,7 +1557,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1574,7 +1569,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -1585,7 +1580,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>148</v>
       </c>
@@ -1596,7 +1591,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -1611,7 +1606,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -1623,7 +1618,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -1635,7 +1630,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -1647,7 +1642,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -1659,7 +1654,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -1671,7 +1666,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -1683,7 +1678,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1695,7 +1690,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -1707,7 +1702,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -1722,7 +1717,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1734,7 +1729,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -1746,7 +1741,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -1758,7 +1753,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>164</v>
       </c>
@@ -1769,7 +1764,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -1780,7 +1775,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -1791,7 +1786,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1802,7 +1797,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -1813,7 +1808,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1828,7 +1823,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1843,7 +1838,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1854,7 +1849,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1865,7 +1860,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1876,7 +1871,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -1887,7 +1882,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -1902,7 +1897,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -1913,7 +1908,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -1924,7 +1919,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -1936,7 +1931,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -1947,7 +1942,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -1958,7 +1953,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -1969,7 +1964,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>248</v>
       </c>
@@ -1980,7 +1975,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -1991,7 +1986,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -2003,7 +1998,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -2015,7 +2010,7 @@
         <v>3.4482758620689657</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -2023,7 +2018,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -2031,7 +2026,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -2040,7 +2035,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -2048,7 +2043,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>266</v>
       </c>
@@ -2074,13 +2069,13 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.81640625" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -2093,7 +2088,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -2101,7 +2096,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2112,7 +2107,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2120,7 +2115,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2131,7 +2126,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2139,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2147,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2155,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2166,7 +2161,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2174,7 +2169,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2185,7 +2180,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -2193,7 +2188,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -2201,7 +2196,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2209,7 +2204,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2220,7 +2215,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
@@ -2228,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2239,7 +2234,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -2247,7 +2242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2258,7 +2253,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2269,7 +2264,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2280,7 +2275,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -2291,7 +2286,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2299,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2310,7 +2305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -2318,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2326,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2334,7 +2329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -2342,7 +2337,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -2350,7 +2345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>264</v>
       </c>
@@ -2358,7 +2353,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>265</v>
       </c>
@@ -2366,7 +2361,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>267</v>
       </c>
@@ -2377,7 +2372,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>268</v>
       </c>
@@ -2401,12 +2396,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
@@ -2423,7 +2418,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>120</v>
       </c>
@@ -2443,7 +2438,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
@@ -2454,7 +2449,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>121</v>
       </c>
@@ -2475,7 +2470,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>122</v>
       </c>
@@ -2493,7 +2488,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>123</v>
       </c>
@@ -2511,7 +2506,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>205</v>
       </c>
@@ -2528,7 +2523,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>206</v>
       </c>
@@ -2542,7 +2537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>207</v>
       </c>
@@ -2556,7 +2551,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>126</v>
       </c>
@@ -2573,7 +2568,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>110</v>
       </c>
@@ -2593,7 +2588,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>111</v>
       </c>
@@ -2613,7 +2608,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>112</v>
       </c>
@@ -2633,7 +2628,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>113</v>
       </c>
@@ -2653,7 +2648,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>114</v>
       </c>
@@ -2673,7 +2668,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>115</v>
       </c>
@@ -2693,7 +2688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>116</v>
       </c>
@@ -2713,7 +2708,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>117</v>
       </c>
@@ -2736,7 +2731,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>118</v>
       </c>
@@ -2756,7 +2751,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>119</v>
       </c>
@@ -2792,14 +2787,14 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -2813,7 +2808,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2825,7 +2820,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2840,7 +2835,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2852,7 +2847,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2864,7 +2859,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2876,7 +2871,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2888,7 +2883,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2900,7 +2895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2912,7 +2907,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2924,7 +2919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2936,7 +2931,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2948,7 +2943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2960,7 +2955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2972,7 +2967,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2984,7 +2979,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2996,7 +2991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3008,7 +3003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3020,7 +3015,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -3032,7 +3027,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3047,7 +3042,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3074,7 +3069,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
@@ -3084,7 +3079,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -3092,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -3100,7 +3095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -3108,7 +3103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -3116,7 +3111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -3124,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -3132,7 +3127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -3140,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -3148,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -3156,7 +3151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -3164,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -3172,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -3180,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -3188,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -3196,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -3204,7 +3199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -3226,10 +3221,10 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -3305,13 +3300,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -3325,7 +3320,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>246</v>
       </c>
@@ -3335,7 +3330,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>216</v>
       </c>
@@ -3343,7 +3338,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -3351,7 +3346,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -3359,7 +3354,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -3367,7 +3362,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -3375,7 +3370,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -3383,7 +3378,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>222</v>
       </c>
@@ -3391,7 +3386,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -3399,7 +3394,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -3407,7 +3402,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>225</v>
       </c>
@@ -3415,7 +3410,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -3423,7 +3418,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -3431,7 +3426,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>228</v>
       </c>
@@ -3439,7 +3434,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -3447,7 +3442,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -3455,7 +3450,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -3463,7 +3458,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -3471,7 +3466,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -3479,7 +3474,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>234</v>
       </c>
@@ -3493,7 +3488,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>235</v>
       </c>
@@ -3507,7 +3502,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>236</v>
       </c>
@@ -3521,7 +3516,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>237</v>
       </c>
@@ -3532,7 +3527,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>238</v>
       </c>
@@ -3543,7 +3538,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>239</v>
       </c>
@@ -3554,7 +3549,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>240</v>
       </c>
@@ -3565,7 +3560,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>241</v>
       </c>
@@ -3576,7 +3571,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>242</v>
       </c>
@@ -3587,7 +3582,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>254</v>
       </c>
@@ -3595,7 +3590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
         <v>256</v>
       </c>
@@ -3618,13 +3613,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3632,7 +3627,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -3642,7 +3637,7 @@
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -3651,7 +3646,7 @@
         <v>4740500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -3660,7 +3655,7 @@
         <v>4615333.333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3669,7 +3664,7 @@
         <v>4490166.666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -3677,7 +3672,7 @@
         <v>4365000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -3686,7 +3681,7 @@
         <v>4239833.333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -3695,7 +3690,7 @@
         <v>4114666.666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -3704,7 +3699,7 @@
         <v>3989500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -3713,7 +3708,7 @@
         <v>3864333.3333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -3722,7 +3717,7 @@
         <v>3739166.666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2006</v>
       </c>
@@ -3732,7 +3727,7 @@
       </c>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -3741,7 +3736,7 @@
         <v>3488833.3333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2004</v>
       </c>
@@ -3750,7 +3745,7 @@
         <v>3363666.666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -3759,7 +3754,7 @@
         <v>3238500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -3768,7 +3763,7 @@
         <v>3113333.3333333335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -3777,7 +3772,7 @@
         <v>2988166.666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -3786,7 +3781,7 @@
         <v>2863000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -3795,7 +3790,7 @@
         <v>2737833.3333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -3804,7 +3799,7 @@
         <v>2612666.666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1997</v>
       </c>
@@ -3813,7 +3808,7 @@
         <v>2487500</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1996</v>
       </c>
@@ -3822,7 +3817,7 @@
         <v>2362333.3333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1995</v>
       </c>
@@ -3831,7 +3826,7 @@
         <v>2237166.666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1994</v>
       </c>
@@ -3840,7 +3835,7 @@
         <v>2112000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -3849,7 +3844,7 @@
         <v>1986833.3333333335</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1992</v>
       </c>
@@ -3858,7 +3853,7 @@
         <v>1861666.6666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -3867,7 +3862,7 @@
         <v>1736500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1990</v>
       </c>
@@ -3876,7 +3871,7 @@
         <v>1611333.3333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1989</v>
       </c>
@@ -3885,7 +3880,7 @@
         <v>1486166.6666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1988</v>
       </c>
@@ -3893,7 +3888,7 @@
         <v>1361000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" s="28"/>
     </row>
   </sheetData>
@@ -3909,11 +3904,11 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
@@ -3926,7 +3921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>2015</v>
       </c>
@@ -3934,95 +3929,99 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="27">
         <v>2012</v>
       </c>
       <c r="B3" s="31">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>2010</v>
       </c>
       <c r="B4" s="31">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="27"/>
-      <c r="B5" s="31"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="27">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="31">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="27"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
@@ -4045,12 +4044,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4086,9 +4085,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="6" width="12.54296875" customWidth="1"/>
+    <col min="2" max="6" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -4156,13 +4155,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="5" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2015</v>
       </c>
@@ -4220,12 +4219,12 @@
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="29.1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>2015</v>
       </c>
@@ -4241,7 +4240,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>2012</v>
       </c>
@@ -4249,7 +4248,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>2010</v>
       </c>
@@ -4257,15 +4256,15 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E9" s="3"/>
     </row>
   </sheetData>
@@ -4285,12 +4284,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="5" width="15.453125" customWidth="1"/>
+    <col min="2" max="5" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
@@ -4315,7 +4314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4352,7 +4351,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\HCVelimination\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -24,7 +29,7 @@
     <sheet name="structure" sheetId="14" r:id="rId15"/>
     <sheet name="calibration_guess" sheetId="15" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -34,7 +39,7 @@
     <author>Nick</author>
   </authors>
   <commentList>
-    <comment ref="D39" authorId="0">
+    <comment ref="D39" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D40" authorId="0">
+    <comment ref="D40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B41" authorId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B42" authorId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -134,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B43" authorId="0">
+    <comment ref="B43" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="272">
   <si>
     <t>Year</t>
   </si>
@@ -998,15 +1003,21 @@
   <si>
     <t>133 eurospeper year</t>
   </si>
+  <si>
+    <t>c_cascade2_ab</t>
+  </si>
+  <si>
+    <t>c_cascade2_RNA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;???_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1122,7 +1133,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1189,8 +1200,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1255,7 +1266,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1290,7 +1301,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1508,7 +1519,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1525,14 +1536,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="63.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.26953125" customWidth="1"/>
+    <col min="3" max="3" width="63.453125" customWidth="1"/>
+    <col min="4" max="4" width="30.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1557,7 +1568,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1569,7 +1580,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -1580,7 +1591,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
         <v>148</v>
       </c>
@@ -1591,7 +1602,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -1606,7 +1617,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -1618,7 +1629,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -1630,7 +1641,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -1642,7 +1653,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -1654,7 +1665,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -1666,7 +1677,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -1678,7 +1689,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1690,7 +1701,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -1702,7 +1713,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -1717,7 +1728,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1729,7 +1740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -1741,7 +1752,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -1753,7 +1764,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
         <v>164</v>
       </c>
@@ -1764,7 +1775,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -1775,7 +1786,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -1786,7 +1797,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1797,7 +1808,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -1808,7 +1819,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1823,7 +1834,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1838,7 +1849,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1849,7 +1860,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1860,7 +1871,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1871,7 +1882,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -1882,7 +1893,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -1897,7 +1908,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -1908,7 +1919,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -1919,7 +1930,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -1931,7 +1942,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -1942,7 +1953,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -1953,7 +1964,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -1964,7 +1975,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>248</v>
       </c>
@@ -1975,7 +1986,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -1986,7 +1997,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -1998,7 +2009,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -2010,7 +2021,7 @@
         <v>3.4482758620689657</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -2018,7 +2029,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -2026,7 +2037,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -2035,7 +2046,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -2043,7 +2054,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>266</v>
       </c>
@@ -2063,19 +2074,19 @@
   <sheetPr codeName="Sheet11">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="25.453125" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -2088,7 +2099,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -2096,7 +2107,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>91</v>
       </c>
@@ -2107,7 +2118,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2115,7 +2126,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2126,7 +2137,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2134,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2142,7 +2153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2150,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2161,7 +2172,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2169,7 +2180,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2180,7 +2191,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -2188,7 +2199,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -2196,7 +2207,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2204,7 +2215,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2215,7 +2226,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
@@ -2223,7 +2234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2234,7 +2245,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -2242,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2253,7 +2264,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2264,7 +2275,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2275,7 +2286,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -2286,7 +2297,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2294,7 +2305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2305,7 +2316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -2313,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2321,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2329,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>208</v>
       </c>
@@ -2337,7 +2348,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>209</v>
       </c>
@@ -2345,39 +2356,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>270</v>
+      </c>
+      <c r="B30">
+        <f>1.1+100</f>
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31">
+        <f>70+100</f>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>264</v>
       </c>
-      <c r="B30">
+      <c r="B32">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="33" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B33" s="13">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="20" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="20">
-        <v>155</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="B34" s="20">
+        <v>150</v>
+      </c>
+      <c r="D34" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
         <v>268</v>
       </c>
-      <c r="B33">
-        <v>1000</v>
+      <c r="B35">
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -2396,12 +2425,12 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.26953125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
@@ -2418,7 +2447,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>120</v>
       </c>
@@ -2438,7 +2467,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
@@ -2449,7 +2478,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>121</v>
       </c>
@@ -2470,7 +2499,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
         <v>122</v>
       </c>
@@ -2488,7 +2517,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="15" t="s">
         <v>123</v>
       </c>
@@ -2506,7 +2535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="15" t="s">
         <v>205</v>
       </c>
@@ -2523,7 +2552,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="15" t="s">
         <v>206</v>
       </c>
@@ -2537,7 +2566,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="15" t="s">
         <v>207</v>
       </c>
@@ -2551,7 +2580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="15" t="s">
         <v>126</v>
       </c>
@@ -2568,7 +2597,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
         <v>110</v>
       </c>
@@ -2588,7 +2617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="15" t="s">
         <v>111</v>
       </c>
@@ -2608,7 +2637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="15" t="s">
         <v>112</v>
       </c>
@@ -2628,7 +2657,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>113</v>
       </c>
@@ -2648,7 +2677,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="15" t="s">
         <v>114</v>
       </c>
@@ -2668,7 +2697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>115</v>
       </c>
@@ -2688,7 +2717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="15" t="s">
         <v>116</v>
       </c>
@@ -2708,7 +2737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>117</v>
       </c>
@@ -2731,7 +2760,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="15" t="s">
         <v>118</v>
       </c>
@@ -2751,7 +2780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
         <v>119</v>
       </c>
@@ -2787,14 +2816,14 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="19.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -2808,7 +2837,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2820,7 +2849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2835,7 +2864,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2847,7 +2876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2859,7 +2888,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2871,7 +2900,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2883,7 +2912,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2895,7 +2924,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2907,7 +2936,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2919,7 +2948,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2931,7 +2960,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -2943,7 +2972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2955,7 +2984,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -2967,7 +2996,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2979,7 +3008,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -2991,7 +3020,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3003,7 +3032,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3015,7 +3044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -3027,7 +3056,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3042,7 +3071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3069,7 +3098,7 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
@@ -3079,7 +3108,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -3087,7 +3116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -3095,7 +3124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -3103,7 +3132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -3111,7 +3140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -3119,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -3127,7 +3156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -3135,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -3143,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -3151,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -3159,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -3167,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -3175,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -3183,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -3191,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -3199,7 +3228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -3221,10 +3250,10 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -3300,13 +3329,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -3320,7 +3349,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="23" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="24" t="s">
         <v>246</v>
       </c>
@@ -3330,7 +3359,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
         <v>216</v>
       </c>
@@ -3338,7 +3367,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -3346,7 +3375,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -3354,7 +3383,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -3362,7 +3391,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -3370,7 +3399,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -3378,7 +3407,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
         <v>222</v>
       </c>
@@ -3386,7 +3415,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -3394,7 +3423,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -3402,7 +3431,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>225</v>
       </c>
@@ -3410,7 +3439,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -3418,7 +3447,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -3426,7 +3455,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>228</v>
       </c>
@@ -3434,7 +3463,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -3442,7 +3471,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -3450,7 +3479,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -3458,7 +3487,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -3466,7 +3495,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -3474,7 +3503,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
         <v>234</v>
       </c>
@@ -3488,7 +3517,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
         <v>235</v>
       </c>
@@ -3502,7 +3531,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
         <v>236</v>
       </c>
@@ -3516,7 +3545,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
         <v>237</v>
       </c>
@@ -3527,7 +3556,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>238</v>
       </c>
@@ -3538,7 +3567,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
         <v>239</v>
       </c>
@@ -3549,7 +3578,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>240</v>
       </c>
@@ -3560,7 +3589,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>241</v>
       </c>
@@ -3571,7 +3600,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
         <v>242</v>
       </c>
@@ -3582,7 +3611,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
         <v>254</v>
       </c>
@@ -3590,7 +3619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
         <v>256</v>
       </c>
@@ -3613,13 +3642,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3627,7 +3656,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -3637,7 +3666,7 @@
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -3646,7 +3675,7 @@
         <v>4740500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -3655,7 +3684,7 @@
         <v>4615333.333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3664,7 +3693,7 @@
         <v>4490166.666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -3672,7 +3701,7 @@
         <v>4365000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -3681,7 +3710,7 @@
         <v>4239833.333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -3690,7 +3719,7 @@
         <v>4114666.666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -3699,7 +3728,7 @@
         <v>3989500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -3708,7 +3737,7 @@
         <v>3864333.3333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -3717,7 +3746,7 @@
         <v>3739166.666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2006</v>
       </c>
@@ -3727,7 +3756,7 @@
       </c>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -3736,7 +3765,7 @@
         <v>3488833.3333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2004</v>
       </c>
@@ -3745,7 +3774,7 @@
         <v>3363666.666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -3754,7 +3783,7 @@
         <v>3238500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -3763,7 +3792,7 @@
         <v>3113333.3333333335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -3772,7 +3801,7 @@
         <v>2988166.666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -3781,7 +3810,7 @@
         <v>2863000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -3790,7 +3819,7 @@
         <v>2737833.3333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -3799,7 +3828,7 @@
         <v>2612666.666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1997</v>
       </c>
@@ -3808,7 +3837,7 @@
         <v>2487500</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1996</v>
       </c>
@@ -3817,7 +3846,7 @@
         <v>2362333.3333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1995</v>
       </c>
@@ -3826,7 +3855,7 @@
         <v>2237166.666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1994</v>
       </c>
@@ -3835,7 +3864,7 @@
         <v>2112000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -3844,7 +3873,7 @@
         <v>1986833.3333333335</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1992</v>
       </c>
@@ -3853,7 +3882,7 @@
         <v>1861666.6666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -3862,7 +3891,7 @@
         <v>1736500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1990</v>
       </c>
@@ -3871,7 +3900,7 @@
         <v>1611333.3333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1989</v>
       </c>
@@ -3880,7 +3909,7 @@
         <v>1486166.6666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1988</v>
       </c>
@@ -3888,7 +3917,7 @@
         <v>1361000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B31" s="28"/>
     </row>
   </sheetData>
@@ -3904,11 +3933,11 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
@@ -3921,7 +3950,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="11">
         <v>2015</v>
       </c>
@@ -3929,7 +3958,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="27">
         <v>2012</v>
       </c>
@@ -3937,7 +3966,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>2010</v>
       </c>
@@ -3945,7 +3974,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="27">
         <v>2000</v>
       </c>
@@ -3953,75 +3982,75 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="27"/>
       <c r="B6" s="31"/>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
@@ -4044,12 +4073,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4057,7 +4086,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4085,9 +4114,9 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="6" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -4155,13 +4184,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="5" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.54296875" customWidth="1"/>
+    <col min="2" max="5" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
@@ -4186,7 +4215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8">
         <v>2015</v>
       </c>
@@ -4216,15 +4245,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4232,7 +4261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>2015</v>
       </c>
@@ -4240,15 +4269,15 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="26">
         <v>2012</v>
       </c>
       <c r="B3" s="26">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="26">
         <v>2010</v>
       </c>
@@ -4256,15 +4285,15 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
     </row>
-    <row r="6" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E9" s="3"/>
     </row>
   </sheetData>
@@ -4284,12 +4313,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="5" width="15.42578125" customWidth="1"/>
+    <col min="2" max="5" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.600000000000001" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
@@ -4314,7 +4343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4351,7 +4380,7 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="276">
   <si>
     <t>Year</t>
   </si>
@@ -1008,6 +1008,18 @@
   </si>
   <si>
     <t>c_cascade2_RNA</t>
+  </si>
+  <si>
+    <t>DALYs from a death</t>
+  </si>
+  <si>
+    <t>DALY_death</t>
+  </si>
+  <si>
+    <t>DALY_DC</t>
+  </si>
+  <si>
+    <t>DALY_HCC</t>
   </si>
 </sst>
 </file>
@@ -2076,7 +2088,7 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -2419,10 +2431,10 @@
   <sheetPr codeName="Sheet12">
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2798,6 +2810,33 @@
       </c>
       <c r="H20" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B21" s="11">
+        <v>16.79</v>
+      </c>
+      <c r="G21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.19400000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="11">
+        <v>0.50800000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3934,7 +3973,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3967,24 +4006,28 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="27">
-        <v>2010</v>
-      </c>
-      <c r="B4" s="31">
-        <v>45000</v>
+      <c r="A4">
+        <v>2011</v>
+      </c>
+      <c r="B4">
+        <v>46000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="27">
+        <v>2010</v>
+      </c>
+      <c r="B5" s="31">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="27">
         <v>2000</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B6" s="31">
         <v>40000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="27"/>
-      <c r="B6" s="31"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="11"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="20730" windowHeight="11760" tabRatio="923" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="20250" windowHeight="11390" tabRatio="923" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -2433,7 +2433,7 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -3972,8 +3972,8 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4030,12 +4030,20 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="11">
+        <v>1998</v>
+      </c>
+      <c r="B7" s="11">
+        <v>38000</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="11">
+        <v>1996</v>
+      </c>
+      <c r="B8" s="11">
+        <v>36000</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="11"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="20250" windowHeight="11390" tabRatio="923" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="84" windowWidth="20256" windowHeight="11388" tabRatio="923" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -1531,7 +1531,7 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1548,14 +1548,14 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.26953125" customWidth="1"/>
-    <col min="3" max="3" width="63.453125" customWidth="1"/>
-    <col min="4" max="4" width="30.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="63.44140625" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>145</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
       <c r="D3" s="12"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>147</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>148</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>149</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>150</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>151</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>152</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>153</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>154</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>156</v>
       </c>
@@ -1713,7 +1713,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>157</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>160</v>
       </c>
@@ -1764,7 +1764,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>203</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
         <v>164</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>167</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>247</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>248</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>251</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>253</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>255</v>
       </c>
@@ -2033,7 +2033,7 @@
         <v>3.4482758620689657</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>258</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>259</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>260</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>261</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>266</v>
       </c>
@@ -2088,17 +2088,17 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.453125" customWidth="1"/>
-    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>21</v>
       </c>
@@ -2119,26 +2119,26 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
       <c r="B3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
       <c r="B4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>80</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>81</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>85</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>87</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>88</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>89</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>90</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>104</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>101</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>106</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>108</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>109</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>105</v>
       </c>
@@ -2352,23 +2352,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>208</v>
       </c>
       <c r="B28">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>209</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>270</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>101.1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>271</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>264</v>
       </c>
@@ -2394,7 +2394,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>265</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
         <v>267</v>
       </c>
@@ -2413,7 +2413,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
         <v>268</v>
       </c>
@@ -2437,12 +2437,12 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>120</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>124</v>
       </c>
@@ -2490,7 +2490,7 @@
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>121</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>122</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>123</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>205</v>
       </c>
@@ -2564,7 +2564,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>206</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>207</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>126</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>110</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>111</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>112</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>113</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>114</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>115</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>116</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
         <v>117</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
         <v>118</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
         <v>119</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
         <v>273</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
         <v>274</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
         <v>275</v>
       </c>
@@ -2855,14 +2855,14 @@
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
-    <col min="4" max="4" width="19.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>36</v>
       </c>
@@ -2987,7 +2987,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>44</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>48</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>52</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>57</v>
       </c>
@@ -3137,9 +3137,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3147,7 +3147,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2013</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -3179,7 +3179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2009</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -3195,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2005</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2004</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2003</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2002</v>
       </c>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2001</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2000</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1999</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -3289,13 +3289,13 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.54296875" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>161</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>211</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>212</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>214</v>
       </c>
@@ -3346,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>215</v>
       </c>
@@ -3368,13 +3368,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>161</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="23" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>246</v>
       </c>
@@ -3398,7 +3398,7 @@
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
     </row>
-    <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>216</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>217</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>3.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>218</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>219</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>221</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>222</v>
       </c>
@@ -3454,7 +3454,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>223</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>224</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>225</v>
       </c>
@@ -3478,7 +3478,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>226</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
         <v>228</v>
       </c>
@@ -3502,7 +3502,7 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>229</v>
       </c>
@@ -3510,7 +3510,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>230</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>231</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>0.1037</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>233</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
         <v>234</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="20" t="s">
         <v>235</v>
       </c>
@@ -3570,7 +3570,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="20" t="s">
         <v>236</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>2470</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>237</v>
       </c>
@@ -3595,7 +3595,7 @@
         <v>3985</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>238</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>239</v>
       </c>
@@ -3617,7 +3617,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="20" t="s">
         <v>240</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>6300</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
         <v>241</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>6195</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
         <v>242</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="20" t="s">
         <v>254</v>
       </c>
@@ -3658,7 +3658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
         <v>256</v>
       </c>
@@ -3681,13 +3681,13 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2016</v>
       </c>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -3714,7 +3714,7 @@
         <v>4740500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>4615333.333333334</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2013</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>4490166.666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>4365000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2011</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>4239833.333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>4114666.666666667</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2009</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>3989500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>3864333.3333333335</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2007</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>3739166.666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2006</v>
       </c>
@@ -3795,7 +3795,7 @@
       </c>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2005</v>
       </c>
@@ -3804,7 +3804,7 @@
         <v>3488833.3333333335</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2004</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>3363666.666666667</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2003</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>3238500</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2002</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>3113333.3333333335</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2001</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>2988166.666666667</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2000</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>2863000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -3858,7 +3858,7 @@
         <v>2737833.3333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1998</v>
       </c>
@@ -3867,7 +3867,7 @@
         <v>2612666.666666667</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1997</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>2487500</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1996</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>2362333.3333333335</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1995</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>2237166.666666667</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1994</v>
       </c>
@@ -3903,7 +3903,7 @@
         <v>2112000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1993</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>1986833.3333333335</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1992</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>1861666.6666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1991</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>1736500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1990</v>
       </c>
@@ -3939,7 +3939,7 @@
         <v>1611333.3333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1989</v>
       </c>
@@ -3948,7 +3948,7 @@
         <v>1486166.6666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1988</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>1361000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B31" s="28"/>
     </row>
   </sheetData>
@@ -3972,16 +3972,16 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>2015</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>48000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="27">
         <v>2012</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>47000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2011</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>46000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="27">
         <v>2010</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <v>2000</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>1998</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>1996</v>
       </c>
@@ -4045,63 +4045,63 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
     </row>
@@ -4124,12 +4124,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -4137,7 +4137,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -4165,12 +4165,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="6" width="12.54296875" customWidth="1"/>
+    <col min="2" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>7</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="E1" s="7"/>
       <c r="F1" s="7"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -4235,13 +4235,13 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.54296875" customWidth="1"/>
-    <col min="2" max="5" width="15.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="5" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="9" t="s">
         <v>8</v>
       </c>
@@ -4249,7 +4249,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4266,7 +4266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2015</v>
       </c>
@@ -4299,12 +4299,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>2015</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0.23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="26">
         <v>2012</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="26">
         <v>2010</v>
       </c>
@@ -4336,15 +4336,15 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E9" s="3"/>
     </row>
   </sheetData>
@@ -4364,12 +4364,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="15.453125" customWidth="1"/>
+    <col min="2" max="5" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2015</v>
       </c>
@@ -4431,9 +4431,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="20256" windowHeight="11388" tabRatio="923" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="84" windowWidth="20256" windowHeight="11388" tabRatio="923" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -1544,8 +1544,8 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,7 +1803,7 @@
         <v>166</v>
       </c>
       <c r="B21">
-        <v>40000</v>
+        <v>9000</v>
       </c>
       <c r="C21" t="s">
         <v>174</v>
@@ -1814,7 +1814,7 @@
         <v>15</v>
       </c>
       <c r="B22">
-        <v>50000</v>
+        <v>12000</v>
       </c>
       <c r="C22" t="s">
         <v>175</v>
@@ -1836,8 +1836,8 @@
         <v>16</v>
       </c>
       <c r="B24" s="17">
-        <f>1/22</f>
-        <v>4.5454545454545456E-2</v>
+        <f>1/6</f>
+        <v>0.16666666666666666</v>
       </c>
       <c r="C24" t="s">
         <v>177</v>
@@ -2088,7 +2088,7 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -4428,7 +4428,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4449,10 +4449,10 @@
         <v>2015</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.42</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -1544,8 +1544,8 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2038,7 +2038,7 @@
         <v>258</v>
       </c>
       <c r="B41">
-        <v>0.48</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -2046,7 +2046,7 @@
         <v>259</v>
       </c>
       <c r="B42">
-        <v>0.41</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -2054,8 +2054,8 @@
         <v>260</v>
       </c>
       <c r="B43">
-        <f>B41</f>
-        <v>0.48</v>
+        <f>B42</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="84" windowWidth="20256" windowHeight="11388" tabRatio="923" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="84" windowWidth="20256" windowHeight="11388" tabRatio="923" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -1544,7 +1544,7 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
@@ -2088,8 +2088,8 @@
   </sheetPr>
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2357,7 +2357,7 @@
         <v>208</v>
       </c>
       <c r="B28">
-        <v>250</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2365,7 +2365,7 @@
         <v>209</v>
       </c>
       <c r="B29">
-        <v>250</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2373,8 +2373,7 @@
         <v>270</v>
       </c>
       <c r="B30">
-        <f>1.1+100</f>
-        <v>101.1</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2382,8 +2381,7 @@
         <v>271</v>
       </c>
       <c r="B31">
-        <f>70+100</f>
-        <v>170</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2391,7 +2389,7 @@
         <v>264</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
@@ -2399,7 +2397,7 @@
         <v>265</v>
       </c>
       <c r="B33" s="13">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -2418,7 +2416,7 @@
         <v>268</v>
       </c>
       <c r="B35">
-        <v>972</v>
+        <v>1085</v>
       </c>
     </row>
   </sheetData>
